--- a/geigermuller/GeigerMuller_2.xlsx
+++ b/geigermuller/GeigerMuller_2.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Retrodifusão de Eletrões" sheetId="1" r:id="rId1"/>
     <sheet name="Variação com a distância" sheetId="2" r:id="rId2"/>
-    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Analise Estatistica" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Elemento</t>
   </si>
@@ -122,14 +122,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>N-</t>
     </r>
     <r>
@@ -144,6 +136,123 @@
       </rPr>
       <t>N</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>N-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N/sigma</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N/sigma(rounded)</t>
+    </r>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>-3,-2.5</t>
+  </si>
+  <si>
+    <t>-2.5,2</t>
+  </si>
+  <si>
+    <t>-2,1.5</t>
+  </si>
+  <si>
+    <t>-1.5,-1</t>
+  </si>
+  <si>
+    <t>-1,-0.5</t>
+  </si>
+  <si>
+    <t>-0.5,0</t>
+  </si>
+  <si>
+    <t>0,0.5</t>
+  </si>
+  <si>
+    <t>0.5,1</t>
+  </si>
+  <si>
+    <t>1,1.5</t>
+  </si>
+  <si>
+    <t>1.5;2</t>
+  </si>
+  <si>
+    <t>2;2.5</t>
+  </si>
+  <si>
+    <t>2.5;3</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <r>
+      <t>Erro N-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <t>Erro N-N/sigma</t>
+  </si>
+  <si>
+    <t>-3;-2</t>
+  </si>
+  <si>
+    <t>-2;-1</t>
+  </si>
+  <si>
+    <t>-1;0</t>
+  </si>
+  <si>
+    <t>0;1</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>2;3</t>
   </si>
 </sst>
 </file>
@@ -196,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -205,9 +314,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +339,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,14 +725,14 @@
       <c r="F2" s="3">
         <v>19200</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <f>SQRT(F2)</f>
         <v>138.5640646055102</v>
       </c>
       <c r="H2" s="3">
         <v>19042</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <f>SQRT(H2)</f>
         <v>137.99275343292487</v>
       </c>
@@ -623,7 +740,7 @@
         <f>F2+H2</f>
         <v>38242</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <f>SQRT(G2*G2+I2*I2)</f>
         <v>195.55561868685851</v>
       </c>
@@ -650,14 +767,14 @@
       <c r="F3" s="3">
         <v>20050</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G9" si="0">SQRT(F3)</f>
         <v>141.59802258506295</v>
       </c>
       <c r="H3" s="3">
         <v>19846</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I9" si="1">SQRT(H3)</f>
         <v>140.87583185202493</v>
       </c>
@@ -665,7 +782,7 @@
         <f t="shared" ref="J3:J9" si="2">F3+H3</f>
         <v>39896</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <f t="shared" ref="K3:K9" si="3">SQRT(G3*G3+I3*I3)</f>
         <v>199.73983077994234</v>
       </c>
@@ -692,14 +809,14 @@
       <c r="F4" s="3">
         <v>21870</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>147.88509052639486</v>
       </c>
       <c r="H4" s="3">
         <v>21722</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <f t="shared" si="1"/>
         <v>147.38385257551113</v>
       </c>
@@ -707,7 +824,7 @@
         <f t="shared" si="2"/>
         <v>43592</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <f t="shared" si="3"/>
         <v>208.78697277368624</v>
       </c>
@@ -734,14 +851,14 @@
       <c r="F5" s="3">
         <v>22007</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>148.34756486036432</v>
       </c>
       <c r="H5" s="3">
         <v>22167</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
         <v>148.8858623241307</v>
       </c>
@@ -749,11 +866,11 @@
         <f t="shared" si="2"/>
         <v>44174</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <f t="shared" si="3"/>
         <v>210.17611662603341</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="13">
         <f t="shared" si="4"/>
         <v>1.1551174101772921</v>
       </c>
@@ -776,14 +893,14 @@
       <c r="F6" s="3">
         <v>22454</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>149.84658821608184</v>
       </c>
       <c r="H6" s="3">
         <v>22822</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <f t="shared" si="1"/>
         <v>151.06952042023568</v>
       </c>
@@ -791,7 +908,7 @@
         <f t="shared" si="2"/>
         <v>45276</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <f t="shared" si="3"/>
         <v>212.78157814998929</v>
       </c>
@@ -818,14 +935,14 @@
       <c r="F7" s="3">
         <v>23062</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>151.8617792599573</v>
       </c>
       <c r="H7" s="3">
         <v>23415</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <f t="shared" si="1"/>
         <v>153.01960658686846</v>
       </c>
@@ -833,7 +950,7 @@
         <f t="shared" si="2"/>
         <v>46477</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <f t="shared" si="3"/>
         <v>215.58524995926786</v>
       </c>
@@ -860,14 +977,14 @@
       <c r="F8" s="3">
         <v>28938</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>170.1117279907532</v>
       </c>
       <c r="H8" s="3">
         <v>29009</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>170.32028651925171</v>
       </c>
@@ -875,7 +992,7 @@
         <f t="shared" si="2"/>
         <v>57947</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <f t="shared" si="3"/>
         <v>240.72183116618234</v>
       </c>
@@ -902,14 +1019,14 @@
       <c r="F9" s="3">
         <v>29491</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>171.72943836162744</v>
       </c>
       <c r="H9" s="3">
         <v>29344</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <f t="shared" si="1"/>
         <v>171.30090484291085</v>
       </c>
@@ -917,7 +1034,7 @@
         <f t="shared" si="2"/>
         <v>58835</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <f t="shared" si="3"/>
         <v>242.55927110708427</v>
       </c>
@@ -978,21 +1095,21 @@
       <c r="B2" s="3">
         <v>2818</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <f>SQRT(B2)</f>
         <v>53.084837759947987</v>
       </c>
       <c r="D2" s="3">
         <v>2928</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <f>SQRT(D2)</f>
         <v>54.110997033874732</v>
       </c>
       <c r="F2" s="3">
         <v>5746</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <f>SQRT(C2*C2+E2*E2)</f>
         <v>75.802374632988901</v>
       </c>
@@ -1004,21 +1121,21 @@
       <c r="B3" s="3">
         <v>1780</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <f t="shared" ref="C3:C6" si="0">SQRT(B3)</f>
         <v>42.190046219457976</v>
       </c>
       <c r="D3" s="3">
         <v>1882</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E6" si="1">SQRT(D3)</f>
         <v>43.382023926967726</v>
       </c>
       <c r="F3" s="3">
         <v>3662</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G6" si="2">SQRT(C3*C3+E3*E3)</f>
         <v>60.514461081629079</v>
       </c>
@@ -1030,21 +1147,21 @@
       <c r="B4" s="3">
         <v>1221</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <f t="shared" si="0"/>
         <v>34.942810419312295</v>
       </c>
       <c r="D4" s="3">
         <v>1274</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <f t="shared" si="1"/>
         <v>35.693136595149497</v>
       </c>
       <c r="F4" s="3">
         <v>2495</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <f t="shared" si="2"/>
         <v>49.949974974968704</v>
       </c>
@@ -1056,21 +1173,21 @@
       <c r="B5" s="3">
         <v>900</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D5" s="3">
         <v>933</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>30.545048698602528</v>
       </c>
       <c r="F5" s="3">
         <v>1833</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <f t="shared" si="2"/>
         <v>42.813549257215293</v>
       </c>
@@ -1082,21 +1199,21 @@
       <c r="B6" s="3">
         <v>753</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>27.440845468024488</v>
       </c>
       <c r="D6" s="3">
         <v>692</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>26.305892875931811</v>
       </c>
       <c r="F6" s="3">
         <v>1445</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <f t="shared" si="2"/>
         <v>38.013155617496423</v>
       </c>
@@ -1108,648 +1225,1867 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="10.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="10.21875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="12"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="11">
         <v>1815</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <f>SQRT(B2)</f>
         <v>42.602816808281588</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="D2" s="12">
+        <f>B2-$A$54</f>
+        <v>-7.0199999999999818</v>
+      </c>
+      <c r="E2" s="6">
+        <f>SQRT(C2*C2+$B$54*$B$54)</f>
+        <v>58.559538932611147</v>
+      </c>
+      <c r="F2" s="4">
+        <f>D2/$B$54</f>
+        <v>-0.17472530369495184</v>
+      </c>
+      <c r="G2" s="12">
+        <f>SQRT(E2*E2/($B$54*$B$54))</f>
+        <v>1.4575261003186419</v>
+      </c>
+      <c r="H2" s="10">
+        <f>F2</f>
+        <v>-0.17472530369495184</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="7">
+        <f>-COUNTIF(F2:F51,"&lt;-2.5")</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2">
+        <f>K2/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="11">
         <v>1848</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C51" si="0">SQRT(B3)</f>
         <v>42.988370520409354</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="D3" s="12">
+        <f t="shared" ref="D3:D51" si="1">B3-$A$54</f>
+        <v>25.980000000000018</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E51" si="2">SQRT(C3*C3+$B$54*$B$54)</f>
+        <v>58.840628820569215</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F51" si="3">D3/$B$54</f>
+        <v>0.64663296153772987</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G51" si="4">SQRT(E3*E3/($B$54*$B$54))</f>
+        <v>1.4645223276746324</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H51" si="5">F3</f>
+        <v>0.64663296153772987</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="7">
+        <f>COUNTIF(F2:F51,"&lt;=-2")</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3">
+        <f t="shared" ref="M3:M13" si="6">K3/50</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="11">
         <v>1845</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <f t="shared" si="0"/>
         <v>42.953463189829058</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="D4" s="12">
+        <f t="shared" si="1"/>
+        <v>22.980000000000018</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="2"/>
+        <v>58.815130706307201</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="3"/>
+        <v>0.57196402833475879</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="4"/>
+        <v>1.463887688677755</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="5"/>
+        <v>0.57196402833475879</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="7">
+        <f>COUNTIF(F2:F51,"&lt;-1.5")-COUNTIF(F2:F51,"&lt;=-2")</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <v>1880</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>43.358966777357601</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="D5" s="12">
+        <f t="shared" si="1"/>
+        <v>57.980000000000018</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="2"/>
+        <v>59.111924346953892</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4431015823694213</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4712747768539265</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="5"/>
+        <v>1.4431015823694213</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="7">
+        <f>COUNTIF(F2:F51,"&lt;-1.")-COUNTIF(F2:F51,"&lt;=-1.5")</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="11">
         <v>1832</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>42.80186911806539</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="D6" s="12">
+        <f t="shared" si="1"/>
+        <v>9.9800000000000182</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="2"/>
+        <v>58.70451089993</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.24839865112188422</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="4"/>
+        <v>1.46113440103332</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="5"/>
+        <v>0.24839865112188422</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="7">
+        <f>COUNTIF(F2:F51,"&lt;-0.5")-COUNTIF(F2:F51,"&lt;=-1")</f>
+        <v>9</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="11">
         <v>1760</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>41.952353926806062</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>-62.019999999999982</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="2"/>
+        <v>58.088033191011043</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.5436557457494215</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4457904900771898</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.5436557457494215</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7">
+        <f>COUNTIF(F2:F55,"&lt;-0")-COUNTIF(F2:F55,"&lt;=-0.5")</f>
+        <v>9</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="11">
         <v>1838</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>42.871902220452036</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="D8" s="12">
+        <f t="shared" si="1"/>
+        <v>15.980000000000018</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="2"/>
+        <v>58.755592074286852</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.39773651752782635</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4624057932986472</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="5"/>
+        <v>0.39773651752782635</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7">
+        <f>COUNTIF(F2:F51,"&gt;=0")-COUNTIF(F2:F51,"&gt;0.5")</f>
+        <v>7</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="11">
         <v>1732</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>41.617304093369626</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="D9" s="12">
+        <f t="shared" si="1"/>
+        <v>-90.019999999999982</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="2"/>
+        <v>57.846517613422506</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.2405657889771513</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4397792532337115</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="5"/>
+        <v>-2.2405657889771513</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="7">
+        <f>COUNTIF(F2:F51,"&gt;=0.5")-COUNTIF(F2:F51,"&gt;1")</f>
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="L9" s="7"/>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
         <v>1820</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>42.661458015403085</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="D10" s="12">
+        <f t="shared" si="1"/>
+        <v>-2.0199999999999818</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="2"/>
+        <v>58.6022149752038</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>-5.0277081690000065E-2</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4585882918432145</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="5"/>
+        <v>-5.0277081690000065E-2</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="7">
+        <f>COUNTIF(F2:F51,"&gt;=1")-COUNTIF(F2:F51,"&gt;1.5")</f>
+        <v>4</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="11">
         <v>1809</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>42.532340636273474</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="D11" s="12">
+        <f t="shared" si="1"/>
+        <v>-13.019999999999982</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
+        <v>58.508286592584476</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.32406317010089397</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4562504478006593</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.32406317010089397</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="7">
+        <f>COUNTIF(F9:F59,"&gt;=1.5")-COUNTIF(F2:F51,"&gt;2")</f>
+        <v>3</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="11">
         <v>1822</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>42.684891940826091</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="D12" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.999999999998181E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="2"/>
+        <v>58.619276692910503</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="3"/>
+        <v>-4.9779288801935439E-4</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4590129519298043</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="5"/>
+        <v>-4.9779288801935439E-4</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="7">
+        <f>COUNTIF(F2:F51,"&gt;=2")-COUNTIF(F2:F51,"&gt;2.5")</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="11">
         <v>1792</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>42.332020977033451</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>-30.019999999999982</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="2"/>
+        <v>58.36282721047705</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4526300155052179</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="7">
+        <f>COUNTIF(F11:F61,"&gt;=2.5")-COUNTIF(F11:F61,"&gt;3")</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="11">
         <v>1854</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>43.058100283221968</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="D14" s="12">
+        <f t="shared" si="1"/>
+        <v>31.980000000000018</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="2"/>
+        <v>58.891591929578539</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.79597082794367202</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4657907813354434</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="5"/>
+        <v>0.79597082794367202</v>
+      </c>
+      <c r="K14" s="7">
+        <f>SUM(K2:K13)</f>
+        <v>50</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14">
+        <f>SUM(M2:M13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="11">
         <v>1829</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="10">
         <f t="shared" si="0"/>
         <v>42.766809560686191</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>6.9800000000000182</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="2"/>
+        <v>58.678953637569244</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4604982898612979</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="5"/>
+        <v>0.17372971791891315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="11">
         <v>1792</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="10">
         <f t="shared" si="0"/>
         <v>42.332020977033451</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="D16" s="12">
+        <f t="shared" si="1"/>
+        <v>-30.019999999999982</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="2"/>
+        <v>58.36282721047705</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4526300155052179</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="11">
         <v>1854</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="10">
         <f t="shared" si="0"/>
         <v>43.058100283221968</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="D17" s="12">
+        <f t="shared" si="1"/>
+        <v>31.980000000000018</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="2"/>
+        <v>58.891591929578539</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="3"/>
+        <v>0.79597082794367202</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4657907813354434</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="5"/>
+        <v>0.79597082794367202</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="11">
         <v>1829</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="10">
         <f t="shared" si="0"/>
         <v>42.766809560686191</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>6.9800000000000182</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="2"/>
+        <v>58.678953637569244</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="3"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4604982898612979</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="5"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
         <v>1866</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="10">
         <f t="shared" si="0"/>
         <v>43.197222132910355</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="D19" s="12">
+        <f t="shared" si="1"/>
+        <v>43.980000000000018</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="2"/>
+        <v>58.99338606996551</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0946465607555562</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4683244012917795</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="5"/>
+        <v>1.0946465607555562</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="11">
         <v>1789</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="10">
         <f t="shared" si="0"/>
         <v>42.296571965113202</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="D20" s="12">
+        <f t="shared" si="1"/>
+        <v>-33.019999999999982</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="2"/>
+        <v>58.337120258031256</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.82185605812070117</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4519901786002087</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.82185605812070117</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="11">
         <v>1843</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="10">
         <f t="shared" si="0"/>
         <v>42.930175867331364</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="D21" s="12">
+        <f t="shared" si="1"/>
+        <v>20.980000000000018</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="2"/>
+        <v>58.798125820471526</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="3"/>
+        <v>0.52218473953277811</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4634644431162256</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="5"/>
+        <v>0.52218473953277811</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="11">
         <v>1857</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="10">
         <f t="shared" si="0"/>
         <v>43.092922852830483</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="D22" s="12">
+        <f t="shared" si="1"/>
+        <v>34.980000000000018</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="2"/>
+        <v>58.917056952974157</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="3"/>
+        <v>0.8706397611466431</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.466424596712423</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="5"/>
+        <v>0.8706397611466431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="11">
         <v>1777</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="10">
         <f t="shared" si="0"/>
         <v>42.154477816715982</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="D23" s="12">
+        <f t="shared" si="1"/>
+        <v>-45.019999999999982</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="2"/>
+        <v>58.234178967338423</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.1205317909325854</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4494280064806853</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.1205317909325854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="11">
         <v>1862</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="10">
         <f t="shared" si="0"/>
         <v>43.150898020782833</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="D24" s="12">
+        <f t="shared" si="1"/>
+        <v>39.980000000000018</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="2"/>
+        <v>58.959474217465683</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="3"/>
+        <v>0.99508798315159486</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4674803473420801</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99508798315159486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="11">
         <v>1794</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="10">
         <f t="shared" si="0"/>
         <v>42.355637169094742</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="D25" s="12">
+        <f t="shared" si="1"/>
+        <v>-28.019999999999982</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="2"/>
+        <v>58.379958890016361</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.6974078361157493</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4530564169169429</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.6974078361157493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="11">
         <v>1746</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="10">
         <f t="shared" si="0"/>
         <v>41.785164831552358</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="D26" s="12">
+        <f t="shared" si="1"/>
+        <v>-76.019999999999982</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="2"/>
+        <v>57.9674011837688</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.8921107673632864</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4427880023135529</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.8921107673632864</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="11">
         <v>1867</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="10">
         <f t="shared" si="0"/>
         <v>43.208795400936602</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="D27" s="12">
+        <f t="shared" si="1"/>
+        <v>44.980000000000018</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="2"/>
+        <v>59.001860987599372</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1195362051565467</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="4"/>
+        <v>1.468535338978014</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="5"/>
+        <v>1.1195362051565467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="11">
         <v>1827</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="10">
         <f t="shared" si="0"/>
         <v>42.743420546325019</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="D28" s="12">
+        <f t="shared" si="1"/>
+        <v>4.9800000000000182</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="2"/>
+        <v>58.661909276804145</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="3"/>
+        <v>0.12395042911693242</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4600740617828125</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.12395042911693242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="11">
         <v>1807</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="10">
         <f t="shared" si="0"/>
         <v>42.508822613664563</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="D29" s="12">
+        <f t="shared" si="1"/>
+        <v>-15.019999999999982</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="2"/>
+        <v>58.491192499384042</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.37384245890287471</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="4"/>
+        <v>1.455824981899543</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.37384245890287471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="11">
         <v>1774</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="10">
         <f t="shared" si="0"/>
         <v>42.118879377305376</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="D30" s="12">
+        <f t="shared" si="1"/>
+        <v>-48.019999999999982</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="2"/>
+        <v>58.208415199178894</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.1952007241355564</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4487867554527649</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.1952007241355564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="11">
         <v>1879</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="10">
         <f t="shared" si="0"/>
         <v>43.347433603386484</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="D31" s="12">
+        <f t="shared" si="1"/>
+        <v>56.980000000000018</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="2"/>
+        <v>59.103465211440863</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="3"/>
+        <v>1.418211937968431</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4710642319790674</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="5"/>
+        <v>1.418211937968431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="11">
         <v>1801</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="10">
         <f t="shared" si="0"/>
         <v>42.43819034784589</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="D32" s="12">
+        <f t="shared" si="1"/>
+        <v>-21.019999999999982</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="2"/>
+        <v>58.439880218905309</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.52318032530881686</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4545478374850236</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.52318032530881686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="11">
         <v>1810</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="10">
         <f t="shared" si="0"/>
         <v>42.544094772365298</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="D33" s="12">
+        <f t="shared" si="1"/>
+        <v>-12.019999999999982</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="2"/>
+        <v>58.516831766595161</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.29917352569990363</v>
+      </c>
+      <c r="G33" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4564631341431298</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.29917352569990363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="11">
         <v>1892</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="10">
         <f t="shared" si="0"/>
         <v>43.497126341863094</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="D34" s="12">
+        <f t="shared" si="1"/>
+        <v>69.980000000000018</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="2"/>
+        <v>59.213339713277449</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7417773151813056</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4737989692585158</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="5"/>
+        <v>1.7417773151813056</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="11">
         <v>1885</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="10">
         <f t="shared" si="0"/>
         <v>43.416586692184822</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="D35" s="12">
+        <f t="shared" si="1"/>
+        <v>62.980000000000018</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="2"/>
+        <v>59.154201879494579</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5675498043743732</v>
+      </c>
+      <c r="G35" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4723270496050154</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="5"/>
+        <v>1.5675498043743732</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="11">
         <v>1821</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="10">
         <f t="shared" si="0"/>
         <v>42.67317658670374</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="D36" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.0199999999999818</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="2"/>
+        <v>58.610746454895114</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.5387437289009711E-2</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4588006373389457</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" si="5"/>
+        <v>-2.5387437289009711E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="11">
         <v>1813</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="10">
         <f t="shared" si="0"/>
         <v>42.579337712087536</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+      <c r="D37" s="12">
+        <f t="shared" si="1"/>
+        <v>-9.0199999999999818</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="2"/>
+        <v>58.542459804828837</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.22450459249693255</v>
+      </c>
+      <c r="G37" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4571010069014609</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.22450459249693255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="11">
         <v>1787</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="10">
         <f t="shared" si="0"/>
         <v>42.2729227756965</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+      <c r="D38" s="12">
+        <f t="shared" si="1"/>
+        <v>-35.019999999999982</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="2"/>
+        <v>58.319975994508091</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.87163534692268185</v>
+      </c>
+      <c r="G38" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4515634639776003</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.87163534692268185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="11">
         <v>1901</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="10">
         <f t="shared" si="0"/>
         <v>43.600458713183279</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+      <c r="D39" s="12">
+        <f t="shared" si="1"/>
+        <v>78.980000000000018</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="2"/>
+        <v>59.28928739662841</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="3"/>
+        <v>1.9657841147902189</v>
+      </c>
+      <c r="G39" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4756892800902004</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="5"/>
+        <v>1.9657841147902189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="11">
         <v>1792</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="10">
         <f t="shared" si="0"/>
         <v>42.332020977033451</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+      <c r="D40" s="12">
+        <f t="shared" si="1"/>
+        <v>-30.019999999999982</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="2"/>
+        <v>58.36282721047705</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="G40" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4526300155052179</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.74718712491773009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="11">
         <v>1807</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="10">
         <f t="shared" si="0"/>
         <v>42.508822613664563</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+      <c r="D41" s="12">
+        <f t="shared" si="1"/>
+        <v>-15.019999999999982</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="2"/>
+        <v>58.491192499384042</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.37384245890287471</v>
+      </c>
+      <c r="G41" s="12">
+        <f t="shared" si="4"/>
+        <v>1.455824981899543</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.37384245890287471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="11">
         <v>1844</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="10">
         <f t="shared" si="0"/>
         <v>42.941821107167776</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
+      <c r="D42" s="12">
+        <f t="shared" si="1"/>
+        <v>21.980000000000018</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="2"/>
+        <v>58.806628878044016</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="3"/>
+        <v>0.5470743839337685</v>
+      </c>
+      <c r="G42" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4636760811955261</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" si="5"/>
+        <v>0.5470743839337685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="11">
         <v>1784</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="10">
         <f t="shared" si="0"/>
         <v>42.237424163885748</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+      <c r="D43" s="12">
+        <f t="shared" si="1"/>
+        <v>-38.019999999999982</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="2"/>
+        <v>58.29425014527591</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.94630428012565293</v>
+      </c>
+      <c r="G43" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4509231567382979</v>
+      </c>
+      <c r="H43" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.94630428012565293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="11">
         <v>1769</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="10">
         <f t="shared" si="0"/>
         <v>42.059481689626182</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
+      <c r="D44" s="12">
+        <f t="shared" si="1"/>
+        <v>-53.019999999999982</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="2"/>
+        <v>58.165450226057743</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.3196489461405083</v>
+      </c>
+      <c r="G44" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4477173725500814</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.3196489461405083</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="11">
         <v>1837</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="10">
         <f t="shared" si="0"/>
         <v>42.860237983473681</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
+      <c r="D45" s="12">
+        <f t="shared" si="1"/>
+        <v>14.980000000000018</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="2"/>
+        <v>58.747081629643532</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="3"/>
+        <v>0.37284687312683601</v>
+      </c>
+      <c r="G45" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4621939713577805</v>
+      </c>
+      <c r="H45" s="10">
+        <f t="shared" si="5"/>
+        <v>0.37284687312683601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="11">
         <v>1781</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="10">
         <f t="shared" si="0"/>
         <v>42.201895692018383</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
+      <c r="D46" s="12">
+        <f t="shared" si="1"/>
+        <v>-41.019999999999982</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="2"/>
+        <v>58.268512937949602</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.020973213328624</v>
+      </c>
+      <c r="G46" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4502825668000716</v>
+      </c>
+      <c r="H46" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.020973213328624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="11">
         <v>1829</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="10">
         <f t="shared" si="0"/>
         <v>42.766809560686191</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+      <c r="D47" s="12">
+        <f t="shared" si="1"/>
+        <v>6.9800000000000182</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="2"/>
+        <v>58.678953637569244</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="3"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="G47" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4604982898612979</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="5"/>
+        <v>0.17372971791891315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="11">
         <v>1907</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="10">
         <f t="shared" si="0"/>
         <v>43.669211121796096</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+      <c r="D48" s="12">
+        <f t="shared" si="1"/>
+        <v>84.980000000000018</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="2"/>
+        <v>59.33986518353408</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="3"/>
+        <v>2.115121981196161</v>
+      </c>
+      <c r="G48" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4769481432208715</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="5"/>
+        <v>2.115121981196161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="11">
         <v>1761</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="10">
         <f t="shared" si="0"/>
         <v>41.964270516714571</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
+      <c r="D49" s="12">
+        <f t="shared" si="1"/>
+        <v>-61.019999999999982</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="2"/>
+        <v>58.096640178240946</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.518766101348431</v>
+      </c>
+      <c r="G49" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4460047149287061</v>
+      </c>
+      <c r="H49" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.518766101348431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="11">
         <v>1845</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="10">
         <f t="shared" si="0"/>
         <v>42.953463189829058</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
+      <c r="D50" s="12">
+        <f t="shared" si="1"/>
+        <v>22.980000000000018</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="2"/>
+        <v>58.815130706307201</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="3"/>
+        <v>0.57196402833475879</v>
+      </c>
+      <c r="G50" s="12">
+        <f t="shared" si="4"/>
+        <v>1.463887688677755</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="5"/>
+        <v>0.57196402833475879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="11">
         <v>1796</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="10">
         <f t="shared" si="0"/>
         <v>42.379240200834182</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="D51" s="12">
+        <f t="shared" si="1"/>
+        <v>-26.019999999999982</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="2"/>
+        <v>58.397085543715285</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.64762854731376862</v>
+      </c>
+      <c r="H51" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.64762854731376862</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
         <f>AVERAGE(B2:B51)</f>
         <v>1822.02</v>
       </c>
+      <c r="B54" s="11">
+        <f>SQRT(SUMSQ(D2:D51)/50)</f>
+        <v>40.1773518291089</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/geigermuller/GeigerMuller_2.xlsx
+++ b/geigermuller/GeigerMuller_2.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Documents\LFRA\LFRA\geigermuller\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24426"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="14840"/>
   </bookViews>
   <sheets>
     <sheet name="Retrodifusão de Eletrões" sheetId="1" r:id="rId1"/>
     <sheet name="Variação com a distância" sheetId="2" r:id="rId2"/>
     <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Elemento</t>
   </si>
@@ -145,12 +143,24 @@
       <t>N</t>
     </r>
   </si>
+  <si>
+    <t>√(Z+1)Z/M</t>
+  </si>
+  <si>
+    <t>fbsc/√(Z+1)Z/M</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Erro fbsc/√(Z+1)Z/M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +185,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,8 +219,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -227,7 +267,21 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -286,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -338,7 +392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -532,7 +586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,20 +594,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G24" sqref="C14:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,32 +624,40 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -606,35 +671,46 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
         <v>19200</v>
       </c>
-      <c r="G2" s="4">
-        <f>SQRT(F2)</f>
+      <c r="H2" s="4">
+        <f>SQRT(G2)</f>
         <v>138.5640646055102</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>19042</v>
       </c>
-      <c r="I2" s="4">
-        <f>SQRT(H2)</f>
+      <c r="J2" s="4">
+        <f>SQRT(I2)</f>
         <v>137.99275343292487</v>
       </c>
-      <c r="J2" s="3">
-        <f>F2+H2</f>
+      <c r="K2" s="3">
+        <f>G2+I2</f>
         <v>38242</v>
       </c>
-      <c r="K2" s="4">
-        <f>SQRT(G2*G2+I2*I2)</f>
+      <c r="L2" s="4">
+        <f>SQRT(H2*H2+J2*J2)</f>
         <v>195.55561868685851</v>
       </c>
-      <c r="L2" s="3">
-        <f>J2/38242</f>
+      <c r="M2" s="3">
+        <f>K2/38242</f>
         <v>1</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N2" s="3">
+        <f>M2*SQRT((L2/K2)^2+($L$2/$K$2)^2)</f>
+        <v>7.2317715638621606E-3</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -648,35 +724,48 @@
         <v>3.5</v>
       </c>
       <c r="F3" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="G3" s="3">
         <v>20050</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G9" si="0">SQRT(F3)</f>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H9" si="0">SQRT(G3)</f>
         <v>141.59802258506295</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>19846</v>
       </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I9" si="1">SQRT(H3)</f>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J9" si="1">SQRT(I3)</f>
         <v>140.87583185202493</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J9" si="2">F3+H3</f>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K9" si="2">G3+I3</f>
         <v>39896</v>
       </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K9" si="3">SQRT(G3*G3+I3*I3)</f>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L9" si="3">SQRT(H3*H3+J3*J3)</f>
         <v>199.73983077994234</v>
       </c>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L9" si="4">J3/38242</f>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M9" si="4">K3/38242</f>
         <v>1.0432508760002093</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N9" si="5">M3*SQRT((L3/K3)^2+($L$2/$K$2)^2)</f>
+        <v>7.4659474255183364E-3</v>
+      </c>
+      <c r="O3" s="3">
+        <f>M3/F3</f>
+        <v>0.66875056153859569</v>
+      </c>
+      <c r="P3" s="3">
+        <f>O3*N3/M3</f>
+        <v>4.7858637343066264E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -690,35 +779,48 @@
         <v>10</v>
       </c>
       <c r="F4" s="3">
+        <v>2.34</v>
+      </c>
+      <c r="G4" s="3">
         <v>21870</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>147.88509052639486</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>21722</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <f t="shared" si="1"/>
         <v>147.38385257551113</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
         <v>43592</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <f t="shared" si="3"/>
         <v>208.78697277368624</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <f t="shared" si="4"/>
         <v>1.1398985408712934</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4" s="3">
+        <f t="shared" si="5"/>
+        <v>7.9865532490788066E-3</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O9" si="6">M4/F4</f>
+        <v>0.48713612857747585</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:P9" si="7">O4*N4/M4</f>
+        <v>3.4130569440507723E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -732,35 +834,48 @@
         <v>13</v>
       </c>
       <c r="F5" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="G5" s="3">
         <v>22007</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>148.34756486036432</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>22167</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <f t="shared" si="1"/>
         <v>148.8858623241307</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
         <v>44174</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <f t="shared" si="3"/>
         <v>210.17611662603341</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <f t="shared" si="4"/>
         <v>1.1551174101772921</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5" s="3">
+        <f t="shared" si="5"/>
+        <v>8.0682293285769431E-3</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="6"/>
+        <v>0.44427592699126617</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="7"/>
+        <v>3.1031651263757473E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -774,35 +889,48 @@
         <v>25.8</v>
       </c>
       <c r="F6" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="G6" s="3">
         <v>22454</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>149.84658821608184</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>22822</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>151.06952042023568</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
         <v>45276</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <f t="shared" si="3"/>
         <v>212.78157814998929</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="4"/>
         <v>1.1839338946707809</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" s="3">
+        <f t="shared" si="5"/>
+        <v>8.2226759011589951E-3</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="6"/>
+        <v>0.33539203815036289</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="7"/>
+        <v>2.3293699436711035E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -816,35 +944,48 @@
         <v>29</v>
       </c>
       <c r="F7" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="G7" s="3">
         <v>23062</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>151.8617792599573</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>23415</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <f t="shared" si="1"/>
         <v>153.01960658686846</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
         <v>46477</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <f t="shared" si="3"/>
         <v>215.58524995926786</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="4"/>
         <v>1.215339155901888</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7" s="3">
+        <f t="shared" si="5"/>
+        <v>8.3907070467743351E-3</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="6"/>
+        <v>0.3284700421356454</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="7"/>
+        <v>2.2677586612903605E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -858,35 +999,48 @@
         <v>74</v>
       </c>
       <c r="F8" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="G8" s="3">
         <v>28938</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>170.1117279907532</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>29009</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <f t="shared" si="1"/>
         <v>170.32028651925171</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
         <v>57947</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <f t="shared" si="3"/>
         <v>240.72183116618234</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <f t="shared" si="4"/>
         <v>1.5152711678259505</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8" s="3">
+        <f t="shared" si="5"/>
+        <v>9.9831428964877698E-3</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.27600567719962665</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="7"/>
+        <v>1.8184231141143477E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -900,37 +1054,111 @@
         <v>82</v>
       </c>
       <c r="F9" s="3">
+        <v>5.73</v>
+      </c>
+      <c r="G9" s="3">
         <v>29491</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>171.72943836162744</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>29344</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <f t="shared" si="1"/>
         <v>171.30090484291085</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
         <v>58835</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <f t="shared" si="3"/>
         <v>242.55927110708427</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <f t="shared" si="4"/>
         <v>1.5384917106845877</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0105671029681438E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="6"/>
+        <v>0.26849768074774655</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="7"/>
+        <v>1.7636424135569701E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17" s="3"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="4:8">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -942,13 +1170,13 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -971,7 +1199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -997,7 +1225,7 @@
         <v>75.802374632988901</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1023,7 +1251,7 @@
         <v>60.514461081629079</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1049,7 +1277,7 @@
         <v>49.949974974968704</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1075,7 +1303,7 @@
         <v>42.813549257215293</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1103,6 +1331,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1110,18 +1343,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="10.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="9"/>
+    <col min="2" max="2" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1135,7 +1368,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1147,7 +1380,7 @@
         <v>42.602816808281588</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1159,7 +1392,7 @@
         <v>42.988370520409354</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1171,7 +1404,7 @@
         <v>42.953463189829058</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1183,7 +1416,7 @@
         <v>43.358966777357601</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1195,7 +1428,7 @@
         <v>42.80186911806539</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1207,7 +1440,7 @@
         <v>41.952353926806062</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1219,7 +1452,7 @@
         <v>42.871902220452036</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1231,7 +1464,7 @@
         <v>41.617304093369626</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1243,7 +1476,7 @@
         <v>42.661458015403085</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1255,7 +1488,7 @@
         <v>42.532340636273474</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1267,7 +1500,7 @@
         <v>42.684891940826091</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1279,7 +1512,7 @@
         <v>42.332020977033451</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1291,7 +1524,7 @@
         <v>43.058100283221968</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1303,7 +1536,7 @@
         <v>42.766809560686191</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1315,7 +1548,7 @@
         <v>42.332020977033451</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1327,7 +1560,7 @@
         <v>43.058100283221968</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1339,7 +1572,7 @@
         <v>42.766809560686191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1351,7 +1584,7 @@
         <v>43.197222132910355</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1363,7 +1596,7 @@
         <v>42.296571965113202</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1375,7 +1608,7 @@
         <v>42.930175867331364</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1387,7 +1620,7 @@
         <v>43.092922852830483</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1399,7 +1632,7 @@
         <v>42.154477816715982</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1411,7 +1644,7 @@
         <v>43.150898020782833</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1423,7 +1656,7 @@
         <v>42.355637169094742</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1435,7 +1668,7 @@
         <v>41.785164831552358</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1447,7 +1680,7 @@
         <v>43.208795400936602</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1459,7 +1692,7 @@
         <v>42.743420546325019</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1471,7 +1704,7 @@
         <v>42.508822613664563</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1483,7 +1716,7 @@
         <v>42.118879377305376</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1495,7 +1728,7 @@
         <v>43.347433603386484</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1507,7 +1740,7 @@
         <v>42.43819034784589</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1519,7 +1752,7 @@
         <v>42.544094772365298</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1531,7 +1764,7 @@
         <v>43.497126341863094</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -1543,7 +1776,7 @@
         <v>43.416586692184822</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -1555,7 +1788,7 @@
         <v>42.67317658670374</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -1567,7 +1800,7 @@
         <v>42.579337712087536</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -1579,7 +1812,7 @@
         <v>42.2729227756965</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -1591,7 +1824,7 @@
         <v>43.600458713183279</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -1603,7 +1836,7 @@
         <v>42.332020977033451</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -1615,7 +1848,7 @@
         <v>42.508822613664563</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -1627,7 +1860,7 @@
         <v>42.941821107167776</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -1639,7 +1872,7 @@
         <v>42.237424163885748</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -1651,7 +1884,7 @@
         <v>42.059481689626182</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -1663,7 +1896,7 @@
         <v>42.860237983473681</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -1675,7 +1908,7 @@
         <v>42.201895692018383</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -1687,7 +1920,7 @@
         <v>42.766809560686191</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -1699,7 +1932,7 @@
         <v>43.669211121796096</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -1711,7 +1944,7 @@
         <v>41.964270516714571</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -1723,7 +1956,7 @@
         <v>42.953463189829058</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -1735,7 +1968,7 @@
         <v>42.379240200834182</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="6" t="s">
         <v>29</v>
       </c>
@@ -1743,7 +1976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="9">
         <f>AVERAGE(B2:B51)</f>
         <v>1822.02</v>
@@ -1751,5 +1984,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/geigermuller/GeigerMuller_2.xlsx
+++ b/geigermuller/GeigerMuller_2.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24426"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Documents\LFRA\LFRA\geigermuller\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="14840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25584" windowHeight="14844" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Retrodifusão de Eletrões" sheetId="1" r:id="rId1"/>
     <sheet name="Variação com a distância" sheetId="2" r:id="rId2"/>
-    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Variação estatistica" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>Elemento</t>
   </si>
@@ -119,31 +124,6 @@
     <t>Erro Média</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-  </si>
-  <si>
     <t>√(Z+1)Z/M</t>
   </si>
   <si>
@@ -154,13 +134,91 @@
   </si>
   <si>
     <t>Erro fbsc/√(Z+1)Z/M</t>
+  </si>
+  <si>
+    <t>N-N</t>
+  </si>
+  <si>
+    <t>Erro N-N</t>
+  </si>
+  <si>
+    <t>N-N/sigma</t>
+  </si>
+  <si>
+    <t>Erro N-N/sigma</t>
+  </si>
+  <si>
+    <t>N-N/sigma(rounded)</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>-3,-2.5</t>
+  </si>
+  <si>
+    <t>-2.5,2</t>
+  </si>
+  <si>
+    <t>-2,1.5</t>
+  </si>
+  <si>
+    <t>-1.5,-1</t>
+  </si>
+  <si>
+    <t>-1,-0.5</t>
+  </si>
+  <si>
+    <t>-0.5,0</t>
+  </si>
+  <si>
+    <t>0,0.5</t>
+  </si>
+  <si>
+    <t>0.5,1</t>
+  </si>
+  <si>
+    <t>1,1.5</t>
+  </si>
+  <si>
+    <t>1.5;2</t>
+  </si>
+  <si>
+    <t>2;2.5</t>
+  </si>
+  <si>
+    <t>2.5;3</t>
+  </si>
+  <si>
+    <t>-3;-2</t>
+  </si>
+  <si>
+    <t>-2;-1</t>
+  </si>
+  <si>
+    <t>-1;0</t>
+  </si>
+  <si>
+    <t>0;1</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>2;3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,15 +228,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -221,22 +270,22 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -254,9 +303,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -266,22 +312,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,21 +660,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G24" sqref="C14:G24"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
@@ -651,13 +715,13 @@
         <v>26</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -704,13 +768,13 @@
         <v>7.2317715638621606E-3</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -765,7 +829,7 @@
         <v>4.7858637343066264E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -820,7 +884,7 @@
         <v>3.4130569440507723E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -858,7 +922,7 @@
         <f t="shared" si="3"/>
         <v>210.17611662603341</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <f t="shared" si="4"/>
         <v>1.1551174101772921</v>
       </c>
@@ -875,7 +939,7 @@
         <v>3.1031651263757473E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -930,7 +994,7 @@
         <v>2.3293699436711035E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -985,7 +1049,7 @@
         <v>2.2677586612903605E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +1104,7 @@
         <v>1.8184231141143477E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1095,56 +1159,56 @@
         <v>1.7636424135569701E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="4:8">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="4:8">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="4:8">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="4:8">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="4:8">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1166,17 +1230,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1225,7 +1289,7 @@
         <v>75.802374632988901</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1251,7 +1315,7 @@
         <v>60.514461081629079</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1277,7 +1341,7 @@
         <v>49.949974974968704</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1303,7 +1367,7 @@
         <v>42.813549257215293</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1341,20 +1405,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="9"/>
-    <col min="2" max="2" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="8"/>
+    <col min="2" max="2" width="10.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1364,623 +1428,2060 @@
       <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="9">
+      <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="12">
         <v>1815</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="13">
         <f>SQRT(B2)</f>
         <v>42.602816808281588</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="9">
+      <c r="D2" s="11">
+        <f>B2-$A$54</f>
+        <v>-7.0199999999999818</v>
+      </c>
+      <c r="E2" s="14">
+        <f>SQRT(C2*C2+$B$54*$B$54)</f>
+        <v>58.559538932611147</v>
+      </c>
+      <c r="F2" s="15">
+        <f>D2/$B$54</f>
+        <v>-0.17472530369495184</v>
+      </c>
+      <c r="G2" s="11">
+        <f>SQRT(E2*E2/($B$54*$B$54))</f>
+        <v>1.4575261003186419</v>
+      </c>
+      <c r="H2" s="13">
+        <f>F2</f>
+        <v>-0.17472530369495184</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="17">
+        <f>-COUNTIF(F2:F51,"&lt;-2.5")</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="10">
+        <f>K2/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="12">
         <v>1848</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="13">
         <f t="shared" ref="C3:C51" si="0">SQRT(B3)</f>
         <v>42.988370520409354</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="9">
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D51" si="1">B3-$A$54</f>
+        <v>25.980000000000018</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" ref="E3:E51" si="2">SQRT(C3*C3+$B$54*$B$54)</f>
+        <v>58.840628820569215</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F51" si="3">D3/$B$54</f>
+        <v>0.64663296153772987</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G50" si="4">SQRT(E3*E3/($B$54*$B$54))</f>
+        <v>1.4645223276746324</v>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" ref="H3:H51" si="5">F3</f>
+        <v>0.64663296153772987</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="17">
+        <f>COUNTIF(F2:F51,"&lt;=-2")</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M13" si="6">K3/50</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="12">
         <v>1845</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="13">
         <f t="shared" si="0"/>
         <v>42.953463189829058</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="9">
+      <c r="D4" s="11">
+        <f t="shared" si="1"/>
+        <v>22.980000000000018</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="2"/>
+        <v>58.815130706307201</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="3"/>
+        <v>0.57196402833475879</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="4"/>
+        <v>1.463887688677755</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57196402833475879</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="17">
+        <f>COUNTIF(F2:F51,"&lt;-1.5")-COUNTIF(F2:F51,"&lt;=-2")</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="10">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="12">
         <v>1880</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="13">
         <f t="shared" si="0"/>
         <v>43.358966777357601</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9">
+      <c r="D5" s="11">
+        <f t="shared" si="1"/>
+        <v>57.980000000000018</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="2"/>
+        <v>59.111924346953892</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="3"/>
+        <v>1.4431015823694213</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4712747768539265</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="5"/>
+        <v>1.4431015823694213</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="17">
+        <f>COUNTIF(F2:F51,"&lt;-1.")-COUNTIF(F2:F51,"&lt;=-1.5")</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="10">
+        <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="12">
         <v>1832</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="13">
         <f t="shared" si="0"/>
         <v>42.80186911806539</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9">
+      <c r="D6" s="11">
+        <f t="shared" si="1"/>
+        <v>9.9800000000000182</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="2"/>
+        <v>58.70451089993</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="3"/>
+        <v>0.24839865112188422</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="4"/>
+        <v>1.46113440103332</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24839865112188422</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="17">
+        <f>COUNTIF(F2:F51,"&lt;-0.5")-COUNTIF(F2:F51,"&lt;=-1")</f>
+        <v>9</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="10">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="12">
         <v>1760</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="13">
         <f t="shared" si="0"/>
         <v>41.952353926806062</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="9">
+      <c r="D7" s="11">
+        <f t="shared" si="1"/>
+        <v>-62.019999999999982</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="2"/>
+        <v>58.088033191011043</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.5436557457494215</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4457904900771898</v>
+      </c>
+      <c r="H7" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.5436557457494215</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="17">
+        <f>COUNTIF(F2:F55,"&lt;-0")-COUNTIF(F2:F55,"&lt;=-0.5")</f>
+        <v>9</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="10">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="12">
         <v>1838</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="13">
         <f t="shared" si="0"/>
         <v>42.871902220452036</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9">
+      <c r="D8" s="11">
+        <f t="shared" si="1"/>
+        <v>15.980000000000018</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="2"/>
+        <v>58.755592074286852</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="3"/>
+        <v>0.39773651752782635</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4624057932986472</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" si="5"/>
+        <v>0.39773651752782635</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="17">
+        <f>COUNTIF(F2:F51,"&gt;=0")-COUNTIF(F2:F51,"&gt;0.5")</f>
+        <v>7</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="10">
+        <f t="shared" si="6"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="12">
         <v>1732</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="13">
         <f t="shared" si="0"/>
         <v>41.617304093369626</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9">
+      <c r="D9" s="11">
+        <f t="shared" si="1"/>
+        <v>-90.019999999999982</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="2"/>
+        <v>57.846517613422506</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="3"/>
+        <v>-2.2405657889771513</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4397792532337115</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="5"/>
+        <v>-2.2405657889771513</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="17">
+        <f>COUNTIF(F2:F51,"&gt;=0.5")-COUNTIF(F2:F51,"&gt;1")</f>
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="L9" s="17"/>
+      <c r="M9" s="10">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
         <v>1820</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="13">
         <f t="shared" si="0"/>
         <v>42.661458015403085</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9">
+      <c r="D10" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.0199999999999818</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="2"/>
+        <v>58.6022149752038</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="3"/>
+        <v>-5.0277081690000065E-2</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4585882918432145</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="5"/>
+        <v>-5.0277081690000065E-2</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="17">
+        <f>COUNTIF(F2:F51,"&gt;=1")-COUNTIF(F2:F51,"&gt;1.5")</f>
+        <v>4</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="10">
+        <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="12">
         <v>1809</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="13">
         <f t="shared" si="0"/>
         <v>42.532340636273474</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9">
+      <c r="D11" s="11">
+        <f t="shared" si="1"/>
+        <v>-13.019999999999982</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="2"/>
+        <v>58.508286592584476</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.32406317010089397</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4562504478006593</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.32406317010089397</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="17">
+        <f>COUNTIF(F9:F59,"&gt;=1.5")-COUNTIF(F2:F51,"&gt;2")</f>
+        <v>3</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="10">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="12">
         <v>1822</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="13">
         <f t="shared" si="0"/>
         <v>42.684891940826091</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9">
+      <c r="D12" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.999999999998181E-2</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="2"/>
+        <v>58.619276692910503</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="3"/>
+        <v>-4.9779288801935439E-4</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4590129519298043</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="5"/>
+        <v>-4.9779288801935439E-4</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="17">
+        <f>COUNTIF(F2:F51,"&gt;=2")-COUNTIF(F2:F51,"&gt;2.5")</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="10">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="12">
         <v>1792</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="13">
         <f t="shared" si="0"/>
         <v>42.332020977033451</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9">
+      <c r="D13" s="11">
+        <f t="shared" si="1"/>
+        <v>-30.019999999999982</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="2"/>
+        <v>58.36282721047705</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4526300155052179</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="17">
+        <f>COUNTIF(F11:F61,"&gt;=2.5")-COUNTIF(F11:F61,"&gt;3")</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="12">
         <v>1854</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="13">
         <f t="shared" si="0"/>
         <v>43.058100283221968</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9">
+      <c r="D14" s="11">
+        <f t="shared" si="1"/>
+        <v>31.980000000000018</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="2"/>
+        <v>58.891591929578539</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="3"/>
+        <v>0.79597082794367202</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4657907813354434</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="5"/>
+        <v>0.79597082794367202</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="17">
+        <f>SUM(K2:K13)</f>
+        <v>50</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="10">
+        <f>SUM(M2:M13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="12">
         <v>1829</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="13">
         <f t="shared" si="0"/>
         <v>42.766809560686191</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9">
+      <c r="D15" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9800000000000182</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="2"/>
+        <v>58.678953637569244</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="3"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4604982898612979</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="5"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="12">
         <v>1792</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="13">
         <f t="shared" si="0"/>
         <v>42.332020977033451</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="9">
+      <c r="D16" s="11">
+        <f t="shared" si="1"/>
+        <v>-30.019999999999982</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="2"/>
+        <v>58.36282721047705</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4526300155052179</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="12">
         <v>1854</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="13">
         <f t="shared" si="0"/>
         <v>43.058100283221968</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="9">
+      <c r="D17" s="11">
+        <f t="shared" si="1"/>
+        <v>31.980000000000018</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="2"/>
+        <v>58.891591929578539</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="3"/>
+        <v>0.79597082794367202</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4657907813354434</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="5"/>
+        <v>0.79597082794367202</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="10">
+        <v>7</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="12">
         <v>1829</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="13">
         <f t="shared" si="0"/>
         <v>42.766809560686191</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="9">
+      <c r="D18" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9800000000000182</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="2"/>
+        <v>58.678953637569244</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="3"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4604982898612979</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="5"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12">
         <v>1866</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="13">
         <f t="shared" si="0"/>
         <v>43.197222132910355</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="9">
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>43.980000000000018</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="2"/>
+        <v>58.99338606996551</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0946465607555562</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4683244012917795</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0946465607555562</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="10">
+        <v>16</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="12">
         <v>1789</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="13">
         <f t="shared" si="0"/>
         <v>42.296571965113202</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="9">
+      <c r="D20" s="11">
+        <f t="shared" si="1"/>
+        <v>-33.019999999999982</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="2"/>
+        <v>58.337120258031256</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.82185605812070117</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4519901786002087</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.82185605812070117</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="10">
+        <v>7</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="12">
         <v>1843</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="13">
         <f t="shared" si="0"/>
         <v>42.930175867331364</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="9">
+      <c r="D21" s="11">
+        <f t="shared" si="1"/>
+        <v>20.980000000000018</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="2"/>
+        <v>58.798125820471526</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="3"/>
+        <v>0.52218473953277811</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4634644431162256</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="5"/>
+        <v>0.52218473953277811</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="12">
         <v>1857</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="13">
         <f t="shared" si="0"/>
         <v>43.092922852830483</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="9">
+      <c r="D22" s="11">
+        <f t="shared" si="1"/>
+        <v>34.980000000000018</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="2"/>
+        <v>58.917056952974157</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="3"/>
+        <v>0.8706397611466431</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="4"/>
+        <v>1.466424596712423</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="5"/>
+        <v>0.8706397611466431</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="12">
         <v>1777</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="13">
         <f t="shared" si="0"/>
         <v>42.154477816715982</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="9">
+      <c r="D23" s="11">
+        <f t="shared" si="1"/>
+        <v>-45.019999999999982</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="2"/>
+        <v>58.234178967338423</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.1205317909325854</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4494280064806853</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.1205317909325854</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="12">
         <v>1862</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="13">
         <f t="shared" si="0"/>
         <v>43.150898020782833</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="9">
+      <c r="D24" s="11">
+        <f t="shared" si="1"/>
+        <v>39.980000000000018</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="2"/>
+        <v>58.959474217465683</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99508798315159486</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4674803473420801</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="5"/>
+        <v>0.99508798315159486</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="12">
         <v>1794</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="13">
         <f t="shared" si="0"/>
         <v>42.355637169094742</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="9">
+      <c r="D25" s="11">
+        <f t="shared" si="1"/>
+        <v>-28.019999999999982</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="2"/>
+        <v>58.379958890016361</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.6974078361157493</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4530564169169429</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.6974078361157493</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="12">
         <v>1746</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="13">
         <f t="shared" si="0"/>
         <v>41.785164831552358</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="9">
+      <c r="D26" s="11">
+        <f t="shared" si="1"/>
+        <v>-76.019999999999982</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="2"/>
+        <v>57.9674011837688</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.8921107673632864</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4427880023135529</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.8921107673632864</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="12">
         <v>1867</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="13">
         <f t="shared" si="0"/>
         <v>43.208795400936602</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="9">
+      <c r="D27" s="11">
+        <f t="shared" si="1"/>
+        <v>44.980000000000018</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="2"/>
+        <v>59.001860987599372</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1195362051565467</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="4"/>
+        <v>1.468535338978014</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="5"/>
+        <v>1.1195362051565467</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="12">
         <v>1827</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="13">
         <f t="shared" si="0"/>
         <v>42.743420546325019</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="9">
+      <c r="D28" s="11">
+        <f t="shared" si="1"/>
+        <v>4.9800000000000182</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="2"/>
+        <v>58.661909276804145</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="3"/>
+        <v>0.12395042911693242</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4600740617828125</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.12395042911693242</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="12">
         <v>1807</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="13">
         <f t="shared" si="0"/>
         <v>42.508822613664563</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="9">
+      <c r="D29" s="11">
+        <f t="shared" si="1"/>
+        <v>-15.019999999999982</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="2"/>
+        <v>58.491192499384042</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.37384245890287471</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="4"/>
+        <v>1.455824981899543</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.37384245890287471</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="12">
         <v>1774</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="13">
         <f t="shared" si="0"/>
         <v>42.118879377305376</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="9">
+      <c r="D30" s="11">
+        <f t="shared" si="1"/>
+        <v>-48.019999999999982</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="2"/>
+        <v>58.208415199178894</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.1952007241355564</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4487867554527649</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.1952007241355564</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="12">
         <v>1879</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="13">
         <f t="shared" si="0"/>
         <v>43.347433603386484</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="9">
+      <c r="D31" s="11">
+        <f t="shared" si="1"/>
+        <v>56.980000000000018</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="2"/>
+        <v>59.103465211440863</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="3"/>
+        <v>1.418211937968431</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4710642319790674</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="5"/>
+        <v>1.418211937968431</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="12">
         <v>1801</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="13">
         <f t="shared" si="0"/>
         <v>42.43819034784589</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="9">
+      <c r="D32" s="11">
+        <f t="shared" si="1"/>
+        <v>-21.019999999999982</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="2"/>
+        <v>58.439880218905309</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.52318032530881686</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4545478374850236</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.52318032530881686</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="12">
         <v>1810</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="13">
         <f t="shared" si="0"/>
         <v>42.544094772365298</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="9">
+      <c r="D33" s="11">
+        <f t="shared" si="1"/>
+        <v>-12.019999999999982</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="2"/>
+        <v>58.516831766595161</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.29917352569990363</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4564631341431298</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.29917352569990363</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="12">
         <v>1892</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="13">
         <f t="shared" si="0"/>
         <v>43.497126341863094</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="9">
+      <c r="D34" s="11">
+        <f t="shared" si="1"/>
+        <v>69.980000000000018</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="2"/>
+        <v>59.213339713277449</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="3"/>
+        <v>1.7417773151813056</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4737989692585158</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="5"/>
+        <v>1.7417773151813056</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="12">
         <v>1885</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="13">
         <f t="shared" si="0"/>
         <v>43.416586692184822</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="9">
+      <c r="D35" s="11">
+        <f t="shared" si="1"/>
+        <v>62.980000000000018</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="2"/>
+        <v>59.154201879494579</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="3"/>
+        <v>1.5675498043743732</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4723270496050154</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="5"/>
+        <v>1.5675498043743732</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="12">
         <v>1821</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="13">
         <f t="shared" si="0"/>
         <v>42.67317658670374</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="9">
+      <c r="D36" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.0199999999999818</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="2"/>
+        <v>58.610746454895114</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="3"/>
+        <v>-2.5387437289009711E-2</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4588006373389457</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="5"/>
+        <v>-2.5387437289009711E-2</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="12">
         <v>1813</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="13">
         <f t="shared" si="0"/>
         <v>42.579337712087536</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="9">
+      <c r="D37" s="11">
+        <f t="shared" si="1"/>
+        <v>-9.0199999999999818</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="2"/>
+        <v>58.542459804828837</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.22450459249693255</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4571010069014609</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.22450459249693255</v>
+      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="12">
         <v>1787</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="13">
         <f t="shared" si="0"/>
         <v>42.2729227756965</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="9">
+      <c r="D38" s="11">
+        <f t="shared" si="1"/>
+        <v>-35.019999999999982</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="2"/>
+        <v>58.319975994508091</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.87163534692268185</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4515634639776003</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.87163534692268185</v>
+      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="12">
         <v>1901</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="13">
         <f t="shared" si="0"/>
         <v>43.600458713183279</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="9">
+      <c r="D39" s="11">
+        <f t="shared" si="1"/>
+        <v>78.980000000000018</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="2"/>
+        <v>59.28928739662841</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="3"/>
+        <v>1.9657841147902189</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4756892800902004</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" si="5"/>
+        <v>1.9657841147902189</v>
+      </c>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="12">
         <v>1792</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="13">
         <f t="shared" si="0"/>
         <v>42.332020977033451</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="9">
+      <c r="D40" s="11">
+        <f t="shared" si="1"/>
+        <v>-30.019999999999982</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="2"/>
+        <v>58.36282721047705</v>
+      </c>
+      <c r="F40" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4526300155052179</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="12">
         <v>1807</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="13">
         <f t="shared" si="0"/>
         <v>42.508822613664563</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="9">
+      <c r="D41" s="11">
+        <f t="shared" si="1"/>
+        <v>-15.019999999999982</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="2"/>
+        <v>58.491192499384042</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.37384245890287471</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="4"/>
+        <v>1.455824981899543</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.37384245890287471</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="12">
         <v>1844</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="13">
         <f t="shared" si="0"/>
         <v>42.941821107167776</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="9">
+      <c r="D42" s="11">
+        <f t="shared" si="1"/>
+        <v>21.980000000000018</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="2"/>
+        <v>58.806628878044016</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="3"/>
+        <v>0.5470743839337685</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4636760811955261</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="5"/>
+        <v>0.5470743839337685</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="12">
         <v>1784</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="13">
         <f t="shared" si="0"/>
         <v>42.237424163885748</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="9">
+      <c r="D43" s="11">
+        <f t="shared" si="1"/>
+        <v>-38.019999999999982</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="2"/>
+        <v>58.29425014527591</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.94630428012565293</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4509231567382979</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.94630428012565293</v>
+      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="12">
         <v>1769</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="13">
         <f t="shared" si="0"/>
         <v>42.059481689626182</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="9">
+      <c r="D44" s="11">
+        <f t="shared" si="1"/>
+        <v>-53.019999999999982</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="2"/>
+        <v>58.165450226057743</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.3196489461405083</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4477173725500814</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.3196489461405083</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="12">
         <v>1837</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="13">
         <f t="shared" si="0"/>
         <v>42.860237983473681</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="9">
+      <c r="D45" s="11">
+        <f t="shared" si="1"/>
+        <v>14.980000000000018</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="2"/>
+        <v>58.747081629643532</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="3"/>
+        <v>0.37284687312683601</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4621939713577805</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" si="5"/>
+        <v>0.37284687312683601</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="12">
         <v>1781</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="13">
         <f t="shared" si="0"/>
         <v>42.201895692018383</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="9">
+      <c r="D46" s="11">
+        <f t="shared" si="1"/>
+        <v>-41.019999999999982</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="2"/>
+        <v>58.268512937949602</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.020973213328624</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4502825668000716</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.020973213328624</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="12">
         <v>1829</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="13">
         <f t="shared" si="0"/>
         <v>42.766809560686191</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="9">
+      <c r="D47" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9800000000000182</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="2"/>
+        <v>58.678953637569244</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="3"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4604982898612979</v>
+      </c>
+      <c r="H47" s="13">
+        <f t="shared" si="5"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="12">
         <v>1907</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="13">
         <f t="shared" si="0"/>
         <v>43.669211121796096</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="9">
+      <c r="D48" s="11">
+        <f t="shared" si="1"/>
+        <v>84.980000000000018</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="2"/>
+        <v>59.33986518353408</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" si="3"/>
+        <v>2.115121981196161</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4769481432208715</v>
+      </c>
+      <c r="H48" s="13">
+        <f t="shared" si="5"/>
+        <v>2.115121981196161</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="12">
         <v>1761</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="13">
         <f t="shared" si="0"/>
         <v>41.964270516714571</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="9">
+      <c r="D49" s="11">
+        <f t="shared" si="1"/>
+        <v>-61.019999999999982</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="2"/>
+        <v>58.096640178240946</v>
+      </c>
+      <c r="F49" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.518766101348431</v>
+      </c>
+      <c r="G49" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4460047149287061</v>
+      </c>
+      <c r="H49" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.518766101348431</v>
+      </c>
+      <c r="I49" s="10"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="12">
         <v>1845</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="13">
         <f t="shared" si="0"/>
         <v>42.953463189829058</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="9">
+      <c r="D50" s="11">
+        <f t="shared" si="1"/>
+        <v>22.980000000000018</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" si="2"/>
+        <v>58.815130706307201</v>
+      </c>
+      <c r="F50" s="15">
+        <f t="shared" si="3"/>
+        <v>0.57196402833475879</v>
+      </c>
+      <c r="G50" s="11">
+        <f t="shared" si="4"/>
+        <v>1.463887688677755</v>
+      </c>
+      <c r="H50" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57196402833475879</v>
+      </c>
+      <c r="I50" s="10"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="12">
         <v>1796</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="13">
         <f t="shared" si="0"/>
         <v>42.379240200834182</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D51" s="11">
+        <f t="shared" si="1"/>
+        <v>-26.019999999999982</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" si="2"/>
+        <v>58.397085543715285</v>
+      </c>
+      <c r="F51" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.64762854731376862</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.64762854731376862</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="9">
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
         <f>AVERAGE(B2:B51)</f>
         <v>1822.02</v>
       </c>
+      <c r="B54" s="12">
+        <f>SQRT(SUMSQ(D2:D51)/50)</f>
+        <v>40.1773518291089</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/geigermuller/GeigerMuller_2.xlsx
+++ b/geigermuller/GeigerMuller_2.xlsx
@@ -219,8 +219,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -267,7 +269,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -275,6 +277,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -282,6 +285,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -597,7 +601,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G24" sqref="C14:G24"/>
+      <selection activeCell="G14" sqref="G14:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1099,57 +1103,113 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7.2317715638621606E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.0432508760002093</v>
+      </c>
+      <c r="I15" s="3">
+        <v>7.4659474255183364E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="4:8">
+      <c r="G16" s="3">
+        <v>2.34</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.1398985408712934</v>
+      </c>
+      <c r="I16" s="3">
+        <v>7.9865532490788066E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9">
       <c r="D17" s="3"/>
       <c r="E17" s="10"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="4:8">
+      <c r="G17" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1.1551174101772921</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8.0682293285769431E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="4:8">
+      <c r="G18" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.1839338946707809</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8.2226759011589951E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="4:8">
+      <c r="G19" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.215339155901888</v>
+      </c>
+      <c r="I19" s="3">
+        <v>8.3907070467743351E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="4:8">
+      <c r="G20" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.5152711678259505</v>
+      </c>
+      <c r="I20" s="3">
+        <v>9.9831428964877698E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="3">
+        <v>5.73</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.5384917106845877</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1.0105671029681438E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/geigermuller/GeigerMuller_2.xlsx
+++ b/geigermuller/GeigerMuller_2.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24426"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Documents\LFRA\LFRA\geigermuller\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="14840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25584" windowHeight="14844" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Retrodifusão de Eletrões" sheetId="1" r:id="rId1"/>
     <sheet name="Variação com a distância" sheetId="2" r:id="rId2"/>
-    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Variação estatistica" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>Elemento</t>
   </si>
@@ -119,31 +124,6 @@
     <t>Erro Média</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-  </si>
-  <si>
     <t>√(Z+1)Z/M</t>
   </si>
   <si>
@@ -154,13 +134,91 @@
   </si>
   <si>
     <t>Erro fbsc/√(Z+1)Z/M</t>
+  </si>
+  <si>
+    <t>N-N</t>
+  </si>
+  <si>
+    <t>Erro N-N</t>
+  </si>
+  <si>
+    <t>N-N/sigma</t>
+  </si>
+  <si>
+    <t>Erro N-N/sigma</t>
+  </si>
+  <si>
+    <t>N-N/sigma(rounded)</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>-3,-2.5</t>
+  </si>
+  <si>
+    <t>-2.5,2</t>
+  </si>
+  <si>
+    <t>-2,1.5</t>
+  </si>
+  <si>
+    <t>-1.5,-1</t>
+  </si>
+  <si>
+    <t>-1,-0.5</t>
+  </si>
+  <si>
+    <t>-0.5,0</t>
+  </si>
+  <si>
+    <t>0,0.5</t>
+  </si>
+  <si>
+    <t>0.5,1</t>
+  </si>
+  <si>
+    <t>1,1.5</t>
+  </si>
+  <si>
+    <t>1.5;2</t>
+  </si>
+  <si>
+    <t>2;2.5</t>
+  </si>
+  <si>
+    <t>2.5;3</t>
+  </si>
+  <si>
+    <t>-3;-2</t>
+  </si>
+  <si>
+    <t>-2;-1</t>
+  </si>
+  <si>
+    <t>-1;0</t>
+  </si>
+  <si>
+    <t>0;1</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>2;3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,15 +228,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -219,26 +268,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -256,9 +303,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -268,24 +312,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+  <cellStyles count="15">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -600,21 +660,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I21"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -628,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
@@ -655,13 +715,13 @@
         <v>26</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -708,13 +768,13 @@
         <v>7.2317715638621606E-3</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -769,7 +829,7 @@
         <v>4.7858637343066264E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -824,7 +884,7 @@
         <v>3.4130569440507723E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -862,7 +922,7 @@
         <f t="shared" si="3"/>
         <v>210.17611662603341</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <f t="shared" si="4"/>
         <v>1.1551174101772921</v>
       </c>
@@ -879,7 +939,7 @@
         <v>3.1031651263757473E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -934,7 +994,7 @@
         <v>2.3293699436711035E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -989,7 +1049,7 @@
         <v>2.2677586612903605E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1044,7 +1104,7 @@
         <v>1.8184231141143477E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1099,117 +1159,61 @@
         <v>1.7636424135569701E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>7.2317715638621606E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>1.56</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1.0432508760002093</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7.4659474255183364E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <v>2.34</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1.1398985408712934</v>
-      </c>
-      <c r="I16" s="3">
-        <v>7.9865532490788066E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1.1551174101772921</v>
-      </c>
-      <c r="I17" s="3">
-        <v>8.0682293285769431E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9">
+      <c r="G17" s="3"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1.1839338946707809</v>
-      </c>
-      <c r="I18" s="3">
-        <v>8.2226759011589951E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1.215339155901888</v>
-      </c>
-      <c r="I19" s="3">
-        <v>8.3907070467743351E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3">
-        <v>5.49</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1.5152711678259505</v>
-      </c>
-      <c r="I20" s="3">
-        <v>9.9831428964877698E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3">
-        <v>5.73</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1.5384917106845877</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1.0105671029681438E-2</v>
-      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1226,17 +1230,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>75.802374632988901</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>60.514461081629079</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1337,7 +1341,7 @@
         <v>49.949974974968704</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>42.813549257215293</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1401,20 +1405,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="9"/>
-    <col min="2" max="2" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="8"/>
+    <col min="2" max="2" width="10.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1424,623 +1428,2060 @@
       <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="9">
+      <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="12">
         <v>1815</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="13">
         <f>SQRT(B2)</f>
         <v>42.602816808281588</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="9">
+      <c r="D2" s="11">
+        <f>B2-$A$54</f>
+        <v>-7.0199999999999818</v>
+      </c>
+      <c r="E2" s="14">
+        <f>SQRT(C2*C2+$B$54*$B$54)</f>
+        <v>58.559538932611147</v>
+      </c>
+      <c r="F2" s="15">
+        <f>D2/$B$54</f>
+        <v>-0.17472530369495184</v>
+      </c>
+      <c r="G2" s="11">
+        <f>SQRT(E2*E2/($B$54*$B$54))</f>
+        <v>1.4575261003186419</v>
+      </c>
+      <c r="H2" s="13">
+        <f>F2</f>
+        <v>-0.17472530369495184</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="17">
+        <f>-COUNTIF(F2:F51,"&lt;-2.5")</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="10">
+        <f>K2/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="12">
         <v>1848</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="13">
         <f t="shared" ref="C3:C51" si="0">SQRT(B3)</f>
         <v>42.988370520409354</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="9">
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D51" si="1">B3-$A$54</f>
+        <v>25.980000000000018</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" ref="E3:E51" si="2">SQRT(C3*C3+$B$54*$B$54)</f>
+        <v>58.840628820569215</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F51" si="3">D3/$B$54</f>
+        <v>0.64663296153772987</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G50" si="4">SQRT(E3*E3/($B$54*$B$54))</f>
+        <v>1.4645223276746324</v>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" ref="H3:H51" si="5">F3</f>
+        <v>0.64663296153772987</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="17">
+        <f>COUNTIF(F2:F51,"&lt;=-2")</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M13" si="6">K3/50</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="12">
         <v>1845</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="13">
         <f t="shared" si="0"/>
         <v>42.953463189829058</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="9">
+      <c r="D4" s="11">
+        <f t="shared" si="1"/>
+        <v>22.980000000000018</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="2"/>
+        <v>58.815130706307201</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="3"/>
+        <v>0.57196402833475879</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="4"/>
+        <v>1.463887688677755</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57196402833475879</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="17">
+        <f>COUNTIF(F2:F51,"&lt;-1.5")-COUNTIF(F2:F51,"&lt;=-2")</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="10">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="12">
         <v>1880</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="13">
         <f t="shared" si="0"/>
         <v>43.358966777357601</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9">
+      <c r="D5" s="11">
+        <f t="shared" si="1"/>
+        <v>57.980000000000018</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="2"/>
+        <v>59.111924346953892</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="3"/>
+        <v>1.4431015823694213</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4712747768539265</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="5"/>
+        <v>1.4431015823694213</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="17">
+        <f>COUNTIF(F2:F51,"&lt;-1.")-COUNTIF(F2:F51,"&lt;=-1.5")</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="10">
+        <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="12">
         <v>1832</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="13">
         <f t="shared" si="0"/>
         <v>42.80186911806539</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9">
+      <c r="D6" s="11">
+        <f t="shared" si="1"/>
+        <v>9.9800000000000182</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="2"/>
+        <v>58.70451089993</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="3"/>
+        <v>0.24839865112188422</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="4"/>
+        <v>1.46113440103332</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24839865112188422</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="17">
+        <f>COUNTIF(F2:F51,"&lt;-0.5")-COUNTIF(F2:F51,"&lt;=-1")</f>
+        <v>9</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="10">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="12">
         <v>1760</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="13">
         <f t="shared" si="0"/>
         <v>41.952353926806062</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="9">
+      <c r="D7" s="11">
+        <f t="shared" si="1"/>
+        <v>-62.019999999999982</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="2"/>
+        <v>58.088033191011043</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.5436557457494215</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4457904900771898</v>
+      </c>
+      <c r="H7" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.5436557457494215</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="17">
+        <f>COUNTIF(F2:F55,"&lt;-0")-COUNTIF(F2:F55,"&lt;=-0.5")</f>
+        <v>9</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="10">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="12">
         <v>1838</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="13">
         <f t="shared" si="0"/>
         <v>42.871902220452036</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9">
+      <c r="D8" s="11">
+        <f t="shared" si="1"/>
+        <v>15.980000000000018</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="2"/>
+        <v>58.755592074286852</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="3"/>
+        <v>0.39773651752782635</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4624057932986472</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" si="5"/>
+        <v>0.39773651752782635</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="17">
+        <f>COUNTIF(F2:F51,"&gt;=0")-COUNTIF(F2:F51,"&gt;0.5")</f>
+        <v>7</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="10">
+        <f t="shared" si="6"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="12">
         <v>1732</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="13">
         <f t="shared" si="0"/>
         <v>41.617304093369626</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9">
+      <c r="D9" s="11">
+        <f t="shared" si="1"/>
+        <v>-90.019999999999982</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="2"/>
+        <v>57.846517613422506</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="3"/>
+        <v>-2.2405657889771513</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4397792532337115</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="5"/>
+        <v>-2.2405657889771513</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="17">
+        <f>COUNTIF(F2:F51,"&gt;=0.5")-COUNTIF(F2:F51,"&gt;1")</f>
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="L9" s="17"/>
+      <c r="M9" s="10">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
         <v>1820</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="13">
         <f t="shared" si="0"/>
         <v>42.661458015403085</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9">
+      <c r="D10" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.0199999999999818</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="2"/>
+        <v>58.6022149752038</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="3"/>
+        <v>-5.0277081690000065E-2</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4585882918432145</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="5"/>
+        <v>-5.0277081690000065E-2</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="17">
+        <f>COUNTIF(F2:F51,"&gt;=1")-COUNTIF(F2:F51,"&gt;1.5")</f>
+        <v>4</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="10">
+        <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="12">
         <v>1809</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="13">
         <f t="shared" si="0"/>
         <v>42.532340636273474</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9">
+      <c r="D11" s="11">
+        <f t="shared" si="1"/>
+        <v>-13.019999999999982</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="2"/>
+        <v>58.508286592584476</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.32406317010089397</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4562504478006593</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.32406317010089397</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="17">
+        <f>COUNTIF(F9:F59,"&gt;=1.5")-COUNTIF(F2:F51,"&gt;2")</f>
+        <v>3</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="10">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="12">
         <v>1822</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="13">
         <f t="shared" si="0"/>
         <v>42.684891940826091</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9">
+      <c r="D12" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.999999999998181E-2</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="2"/>
+        <v>58.619276692910503</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="3"/>
+        <v>-4.9779288801935439E-4</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4590129519298043</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="5"/>
+        <v>-4.9779288801935439E-4</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="17">
+        <f>COUNTIF(F2:F51,"&gt;=2")-COUNTIF(F2:F51,"&gt;2.5")</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="10">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="12">
         <v>1792</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="13">
         <f t="shared" si="0"/>
         <v>42.332020977033451</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9">
+      <c r="D13" s="11">
+        <f t="shared" si="1"/>
+        <v>-30.019999999999982</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="2"/>
+        <v>58.36282721047705</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4526300155052179</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="17">
+        <f>COUNTIF(F11:F61,"&gt;=2.5")-COUNTIF(F11:F61,"&gt;3")</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="12">
         <v>1854</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="13">
         <f t="shared" si="0"/>
         <v>43.058100283221968</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9">
+      <c r="D14" s="11">
+        <f t="shared" si="1"/>
+        <v>31.980000000000018</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="2"/>
+        <v>58.891591929578539</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="3"/>
+        <v>0.79597082794367202</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4657907813354434</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="5"/>
+        <v>0.79597082794367202</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="17">
+        <f>SUM(K2:K13)</f>
+        <v>50</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="10">
+        <f>SUM(M2:M13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="12">
         <v>1829</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="13">
         <f t="shared" si="0"/>
         <v>42.766809560686191</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9">
+      <c r="D15" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9800000000000182</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="2"/>
+        <v>58.678953637569244</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="3"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4604982898612979</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="5"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="12">
         <v>1792</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="13">
         <f t="shared" si="0"/>
         <v>42.332020977033451</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="9">
+      <c r="D16" s="11">
+        <f t="shared" si="1"/>
+        <v>-30.019999999999982</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="2"/>
+        <v>58.36282721047705</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4526300155052179</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="12">
         <v>1854</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="13">
         <f t="shared" si="0"/>
         <v>43.058100283221968</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="9">
+      <c r="D17" s="11">
+        <f t="shared" si="1"/>
+        <v>31.980000000000018</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="2"/>
+        <v>58.891591929578539</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="3"/>
+        <v>0.79597082794367202</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4657907813354434</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="5"/>
+        <v>0.79597082794367202</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="10">
+        <v>7</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="12">
         <v>1829</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="13">
         <f t="shared" si="0"/>
         <v>42.766809560686191</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="9">
+      <c r="D18" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9800000000000182</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="2"/>
+        <v>58.678953637569244</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="3"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4604982898612979</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="5"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12">
         <v>1866</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="13">
         <f t="shared" si="0"/>
         <v>43.197222132910355</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="9">
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>43.980000000000018</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="2"/>
+        <v>58.99338606996551</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0946465607555562</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4683244012917795</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0946465607555562</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="10">
+        <v>16</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="12">
         <v>1789</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="13">
         <f t="shared" si="0"/>
         <v>42.296571965113202</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="9">
+      <c r="D20" s="11">
+        <f t="shared" si="1"/>
+        <v>-33.019999999999982</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="2"/>
+        <v>58.337120258031256</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.82185605812070117</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4519901786002087</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.82185605812070117</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="10">
+        <v>7</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="12">
         <v>1843</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="13">
         <f t="shared" si="0"/>
         <v>42.930175867331364</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="9">
+      <c r="D21" s="11">
+        <f t="shared" si="1"/>
+        <v>20.980000000000018</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="2"/>
+        <v>58.798125820471526</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="3"/>
+        <v>0.52218473953277811</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4634644431162256</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="5"/>
+        <v>0.52218473953277811</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="12">
         <v>1857</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="13">
         <f t="shared" si="0"/>
         <v>43.092922852830483</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="9">
+      <c r="D22" s="11">
+        <f t="shared" si="1"/>
+        <v>34.980000000000018</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="2"/>
+        <v>58.917056952974157</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="3"/>
+        <v>0.8706397611466431</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="4"/>
+        <v>1.466424596712423</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="5"/>
+        <v>0.8706397611466431</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="12">
         <v>1777</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="13">
         <f t="shared" si="0"/>
         <v>42.154477816715982</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="9">
+      <c r="D23" s="11">
+        <f t="shared" si="1"/>
+        <v>-45.019999999999982</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="2"/>
+        <v>58.234178967338423</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.1205317909325854</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4494280064806853</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.1205317909325854</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="12">
         <v>1862</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="13">
         <f t="shared" si="0"/>
         <v>43.150898020782833</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="9">
+      <c r="D24" s="11">
+        <f t="shared" si="1"/>
+        <v>39.980000000000018</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="2"/>
+        <v>58.959474217465683</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99508798315159486</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4674803473420801</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="5"/>
+        <v>0.99508798315159486</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="12">
         <v>1794</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="13">
         <f t="shared" si="0"/>
         <v>42.355637169094742</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="9">
+      <c r="D25" s="11">
+        <f t="shared" si="1"/>
+        <v>-28.019999999999982</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="2"/>
+        <v>58.379958890016361</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.6974078361157493</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4530564169169429</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.6974078361157493</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="12">
         <v>1746</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="13">
         <f t="shared" si="0"/>
         <v>41.785164831552358</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="9">
+      <c r="D26" s="11">
+        <f t="shared" si="1"/>
+        <v>-76.019999999999982</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="2"/>
+        <v>57.9674011837688</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.8921107673632864</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4427880023135529</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.8921107673632864</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="12">
         <v>1867</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="13">
         <f t="shared" si="0"/>
         <v>43.208795400936602</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="9">
+      <c r="D27" s="11">
+        <f t="shared" si="1"/>
+        <v>44.980000000000018</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="2"/>
+        <v>59.001860987599372</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1195362051565467</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="4"/>
+        <v>1.468535338978014</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="5"/>
+        <v>1.1195362051565467</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="12">
         <v>1827</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="13">
         <f t="shared" si="0"/>
         <v>42.743420546325019</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="9">
+      <c r="D28" s="11">
+        <f t="shared" si="1"/>
+        <v>4.9800000000000182</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="2"/>
+        <v>58.661909276804145</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="3"/>
+        <v>0.12395042911693242</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4600740617828125</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.12395042911693242</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="12">
         <v>1807</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="13">
         <f t="shared" si="0"/>
         <v>42.508822613664563</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="9">
+      <c r="D29" s="11">
+        <f t="shared" si="1"/>
+        <v>-15.019999999999982</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="2"/>
+        <v>58.491192499384042</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.37384245890287471</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="4"/>
+        <v>1.455824981899543</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.37384245890287471</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="12">
         <v>1774</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="13">
         <f t="shared" si="0"/>
         <v>42.118879377305376</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="9">
+      <c r="D30" s="11">
+        <f t="shared" si="1"/>
+        <v>-48.019999999999982</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="2"/>
+        <v>58.208415199178894</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.1952007241355564</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4487867554527649</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.1952007241355564</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="12">
         <v>1879</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="13">
         <f t="shared" si="0"/>
         <v>43.347433603386484</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="9">
+      <c r="D31" s="11">
+        <f t="shared" si="1"/>
+        <v>56.980000000000018</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="2"/>
+        <v>59.103465211440863</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="3"/>
+        <v>1.418211937968431</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4710642319790674</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="5"/>
+        <v>1.418211937968431</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="12">
         <v>1801</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="13">
         <f t="shared" si="0"/>
         <v>42.43819034784589</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="9">
+      <c r="D32" s="11">
+        <f t="shared" si="1"/>
+        <v>-21.019999999999982</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="2"/>
+        <v>58.439880218905309</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.52318032530881686</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4545478374850236</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.52318032530881686</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="12">
         <v>1810</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="13">
         <f t="shared" si="0"/>
         <v>42.544094772365298</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="9">
+      <c r="D33" s="11">
+        <f t="shared" si="1"/>
+        <v>-12.019999999999982</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="2"/>
+        <v>58.516831766595161</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.29917352569990363</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4564631341431298</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.29917352569990363</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="12">
         <v>1892</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="13">
         <f t="shared" si="0"/>
         <v>43.497126341863094</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="9">
+      <c r="D34" s="11">
+        <f t="shared" si="1"/>
+        <v>69.980000000000018</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="2"/>
+        <v>59.213339713277449</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="3"/>
+        <v>1.7417773151813056</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4737989692585158</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="5"/>
+        <v>1.7417773151813056</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="12">
         <v>1885</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="13">
         <f t="shared" si="0"/>
         <v>43.416586692184822</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="9">
+      <c r="D35" s="11">
+        <f t="shared" si="1"/>
+        <v>62.980000000000018</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="2"/>
+        <v>59.154201879494579</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="3"/>
+        <v>1.5675498043743732</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4723270496050154</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="5"/>
+        <v>1.5675498043743732</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="12">
         <v>1821</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="13">
         <f t="shared" si="0"/>
         <v>42.67317658670374</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="9">
+      <c r="D36" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.0199999999999818</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="2"/>
+        <v>58.610746454895114</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="3"/>
+        <v>-2.5387437289009711E-2</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4588006373389457</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="5"/>
+        <v>-2.5387437289009711E-2</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="12">
         <v>1813</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="13">
         <f t="shared" si="0"/>
         <v>42.579337712087536</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="9">
+      <c r="D37" s="11">
+        <f t="shared" si="1"/>
+        <v>-9.0199999999999818</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="2"/>
+        <v>58.542459804828837</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.22450459249693255</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4571010069014609</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.22450459249693255</v>
+      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="12">
         <v>1787</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="13">
         <f t="shared" si="0"/>
         <v>42.2729227756965</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="9">
+      <c r="D38" s="11">
+        <f t="shared" si="1"/>
+        <v>-35.019999999999982</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="2"/>
+        <v>58.319975994508091</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.87163534692268185</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4515634639776003</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.87163534692268185</v>
+      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="12">
         <v>1901</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="13">
         <f t="shared" si="0"/>
         <v>43.600458713183279</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="9">
+      <c r="D39" s="11">
+        <f t="shared" si="1"/>
+        <v>78.980000000000018</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="2"/>
+        <v>59.28928739662841</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="3"/>
+        <v>1.9657841147902189</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4756892800902004</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" si="5"/>
+        <v>1.9657841147902189</v>
+      </c>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="12">
         <v>1792</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="13">
         <f t="shared" si="0"/>
         <v>42.332020977033451</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="9">
+      <c r="D40" s="11">
+        <f t="shared" si="1"/>
+        <v>-30.019999999999982</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="2"/>
+        <v>58.36282721047705</v>
+      </c>
+      <c r="F40" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4526300155052179</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.74718712491773009</v>
+      </c>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="12">
         <v>1807</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="13">
         <f t="shared" si="0"/>
         <v>42.508822613664563</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="9">
+      <c r="D41" s="11">
+        <f t="shared" si="1"/>
+        <v>-15.019999999999982</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="2"/>
+        <v>58.491192499384042</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.37384245890287471</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="4"/>
+        <v>1.455824981899543</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.37384245890287471</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="12">
         <v>1844</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="13">
         <f t="shared" si="0"/>
         <v>42.941821107167776</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="9">
+      <c r="D42" s="11">
+        <f t="shared" si="1"/>
+        <v>21.980000000000018</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="2"/>
+        <v>58.806628878044016</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="3"/>
+        <v>0.5470743839337685</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4636760811955261</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="5"/>
+        <v>0.5470743839337685</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="12">
         <v>1784</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="13">
         <f t="shared" si="0"/>
         <v>42.237424163885748</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="9">
+      <c r="D43" s="11">
+        <f t="shared" si="1"/>
+        <v>-38.019999999999982</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="2"/>
+        <v>58.29425014527591</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.94630428012565293</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4509231567382979</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.94630428012565293</v>
+      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="12">
         <v>1769</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="13">
         <f t="shared" si="0"/>
         <v>42.059481689626182</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="9">
+      <c r="D44" s="11">
+        <f t="shared" si="1"/>
+        <v>-53.019999999999982</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="2"/>
+        <v>58.165450226057743</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.3196489461405083</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4477173725500814</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.3196489461405083</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="12">
         <v>1837</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="13">
         <f t="shared" si="0"/>
         <v>42.860237983473681</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="9">
+      <c r="D45" s="11">
+        <f t="shared" si="1"/>
+        <v>14.980000000000018</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="2"/>
+        <v>58.747081629643532</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="3"/>
+        <v>0.37284687312683601</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4621939713577805</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" si="5"/>
+        <v>0.37284687312683601</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="12">
         <v>1781</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="13">
         <f t="shared" si="0"/>
         <v>42.201895692018383</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="9">
+      <c r="D46" s="11">
+        <f t="shared" si="1"/>
+        <v>-41.019999999999982</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="2"/>
+        <v>58.268512937949602</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.020973213328624</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4502825668000716</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.020973213328624</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="12">
         <v>1829</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="13">
         <f t="shared" si="0"/>
         <v>42.766809560686191</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="9">
+      <c r="D47" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9800000000000182</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="2"/>
+        <v>58.678953637569244</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="3"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4604982898612979</v>
+      </c>
+      <c r="H47" s="13">
+        <f t="shared" si="5"/>
+        <v>0.17372971791891315</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="12">
         <v>1907</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="13">
         <f t="shared" si="0"/>
         <v>43.669211121796096</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="9">
+      <c r="D48" s="11">
+        <f t="shared" si="1"/>
+        <v>84.980000000000018</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="2"/>
+        <v>59.33986518353408</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" si="3"/>
+        <v>2.115121981196161</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4769481432208715</v>
+      </c>
+      <c r="H48" s="13">
+        <f t="shared" si="5"/>
+        <v>2.115121981196161</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="12">
         <v>1761</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="13">
         <f t="shared" si="0"/>
         <v>41.964270516714571</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="9">
+      <c r="D49" s="11">
+        <f t="shared" si="1"/>
+        <v>-61.019999999999982</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="2"/>
+        <v>58.096640178240946</v>
+      </c>
+      <c r="F49" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.518766101348431</v>
+      </c>
+      <c r="G49" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4460047149287061</v>
+      </c>
+      <c r="H49" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.518766101348431</v>
+      </c>
+      <c r="I49" s="10"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="12">
         <v>1845</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="13">
         <f t="shared" si="0"/>
         <v>42.953463189829058</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="9">
+      <c r="D50" s="11">
+        <f t="shared" si="1"/>
+        <v>22.980000000000018</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" si="2"/>
+        <v>58.815130706307201</v>
+      </c>
+      <c r="F50" s="15">
+        <f t="shared" si="3"/>
+        <v>0.57196402833475879</v>
+      </c>
+      <c r="G50" s="11">
+        <f t="shared" si="4"/>
+        <v>1.463887688677755</v>
+      </c>
+      <c r="H50" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57196402833475879</v>
+      </c>
+      <c r="I50" s="10"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="12">
         <v>1796</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="13">
         <f t="shared" si="0"/>
         <v>42.379240200834182</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D51" s="11">
+        <f t="shared" si="1"/>
+        <v>-26.019999999999982</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" si="2"/>
+        <v>58.397085543715285</v>
+      </c>
+      <c r="F51" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.64762854731376862</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.64762854731376862</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="9">
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
         <f>AVERAGE(B2:B51)</f>
         <v>1822.02</v>
       </c>
+      <c r="B54" s="12">
+        <f>SQRT(SUMSQ(D2:D51)/50)</f>
+        <v>40.1773518291089</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/geigermuller/GeigerMuller_2.xlsx
+++ b/geigermuller/GeigerMuller_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25584" windowHeight="14844" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25584" windowHeight="14844"/>
   </bookViews>
   <sheets>
     <sheet name="Retrodifusão de Eletrões" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>Elemento</t>
   </si>
@@ -212,6 +212,24 @@
   </si>
   <si>
     <t>2;3</t>
+  </si>
+  <si>
+    <t>Rc</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Erro Tr</t>
+  </si>
+  <si>
+    <t>Rb</t>
+  </si>
+  <si>
+    <t>ErroRb</t>
+  </si>
+  <si>
+    <t>ErroRc</t>
   </si>
 </sst>
 </file>
@@ -285,7 +303,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -330,6 +348,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
@@ -404,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -456,7 +480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -658,562 +682,639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="3">
+        <v>19200</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SQRT(F2)</f>
+        <v>138.5640646055102</v>
+      </c>
+      <c r="H2" s="3">
+        <v>19042</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SQRT(H2)</f>
+        <v>137.99275343292487</v>
+      </c>
+      <c r="J2" s="3">
+        <f>F2+H2</f>
+        <v>38242</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SQRT(G2*G2+I2*I2)</f>
+        <v>195.55561868685851</v>
+      </c>
+      <c r="L2" s="19">
+        <f>(J2/180)/(1-(J2/180)*$A$13)-$C$13</f>
+        <v>230.10680078001832</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="3">
+        <f>L2/$L$2</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <f>N2*SQRT((M2/L2)^2+($M$2/$L$2)^2)</f>
         <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>19200</v>
-      </c>
-      <c r="H2" s="4">
-        <f>SQRT(G2)</f>
-        <v>138.5640646055102</v>
-      </c>
-      <c r="I2" s="3">
-        <v>19042</v>
-      </c>
-      <c r="J2" s="4">
-        <f>SQRT(I2)</f>
-        <v>137.99275343292487</v>
-      </c>
-      <c r="K2" s="3">
-        <f>G2+I2</f>
-        <v>38242</v>
-      </c>
-      <c r="L2" s="4">
-        <f>SQRT(H2*H2+J2*J2)</f>
-        <v>195.55561868685851</v>
-      </c>
-      <c r="M2" s="3">
-        <f>K2/38242</f>
-        <v>1</v>
-      </c>
-      <c r="N2" s="3">
-        <f>M2*SQRT((L2/K2)^2+($L$2/$K$2)^2)</f>
-        <v>7.2317715638621606E-3</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="3">
+        <v>3.5</v>
+      </c>
       <c r="E3" s="3">
-        <v>3.5</v>
+        <v>1.56</v>
       </c>
       <c r="F3" s="3">
-        <v>1.56</v>
-      </c>
-      <c r="G3" s="3">
         <v>20050</v>
       </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H9" si="0">SQRT(G3)</f>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G9" si="0">SQRT(F3)</f>
         <v>141.59802258506295</v>
       </c>
-      <c r="I3" s="3">
+      <c r="H3" s="3">
         <v>19846</v>
       </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J9" si="1">SQRT(I3)</f>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I9" si="1">SQRT(H3)</f>
         <v>140.87583185202493</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K9" si="2">G3+I3</f>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J9" si="2">F3+H3</f>
         <v>39896</v>
       </c>
-      <c r="L3" s="4">
-        <f t="shared" ref="L3:L9" si="3">SQRT(H3*H3+J3*J3)</f>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K9" si="3">SQRT(G3*G3+I3*I3)</f>
         <v>199.73983077994234</v>
       </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:M9" si="4">K3/38242</f>
-        <v>1.0432508760002093</v>
-      </c>
+      <c r="L3" s="19">
+        <f t="shared" ref="L3:L9" si="4">(J3/180)/(1-(J3/180)*$A$13)-$C$13</f>
+        <v>240.96338456377245</v>
+      </c>
+      <c r="M3" s="4"/>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N9" si="5">M3*SQRT((L3/K3)^2+($L$2/$K$2)^2)</f>
-        <v>7.4659474255183364E-3</v>
+        <f t="shared" ref="N3:N9" si="5">L3/$L$2</f>
+        <v>1.0471806298073432</v>
       </c>
       <c r="O3" s="3">
-        <f>M3/F3</f>
-        <v>0.66875056153859569</v>
+        <f t="shared" ref="O3:O9" si="6">N3*SQRT((M3/L3)^2+($M$2/$L$2)^2)</f>
+        <v>0</v>
       </c>
       <c r="P3" s="3">
-        <f>O3*N3/M3</f>
-        <v>4.7858637343066264E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <f>N3/E3</f>
+        <v>0.67126963449188659</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>O3/E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
       <c r="E4" s="3">
-        <v>10</v>
+        <v>2.34</v>
       </c>
       <c r="F4" s="3">
-        <v>2.34</v>
-      </c>
-      <c r="G4" s="3">
         <v>21870</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>147.88509052639486</v>
       </c>
-      <c r="I4" s="3">
+      <c r="H4" s="3">
         <v>21722</v>
       </c>
-      <c r="J4" s="4">
+      <c r="I4" s="4">
         <f t="shared" si="1"/>
         <v>147.38385257551113</v>
       </c>
-      <c r="K4" s="3">
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
         <v>43592</v>
       </c>
-      <c r="L4" s="4">
+      <c r="K4" s="4">
         <f t="shared" si="3"/>
         <v>208.78697277368624</v>
       </c>
-      <c r="M4" s="3">
-        <f t="shared" si="4"/>
-        <v>1.1398985408712934</v>
-      </c>
+      <c r="L4" s="19">
+        <f t="shared" si="4"/>
+        <v>265.51515371159826</v>
+      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="3">
         <f t="shared" si="5"/>
-        <v>7.9865532490788066E-3</v>
+        <v>1.1538779071785465</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:O9" si="6">M4/F4</f>
-        <v>0.48713612857747585</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" ref="P4:P9" si="7">O4*N4/M4</f>
-        <v>3.4130569440507723E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P4:P9" si="7">N4/E4</f>
+        <v>0.49311021674296862</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4:Q9" si="8">O4/E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="3">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="3">
+        <v>13</v>
+      </c>
       <c r="E5" s="3">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="F5" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="G5" s="3">
         <v>22007</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>148.34756486036432</v>
       </c>
-      <c r="I5" s="3">
+      <c r="H5" s="3">
         <v>22167</v>
       </c>
-      <c r="J5" s="4">
+      <c r="I5" s="4">
         <f t="shared" si="1"/>
         <v>148.8858623241307</v>
       </c>
-      <c r="K5" s="3">
+      <c r="J5" s="3">
         <f t="shared" si="2"/>
         <v>44174</v>
       </c>
-      <c r="L5" s="4">
+      <c r="K5" s="4">
         <f t="shared" si="3"/>
         <v>210.17611662603341</v>
       </c>
-      <c r="M5" s="9">
-        <f t="shared" si="4"/>
-        <v>1.1551174101772921</v>
-      </c>
+      <c r="L5" s="19">
+        <f t="shared" si="4"/>
+        <v>269.41849723696799</v>
+      </c>
+      <c r="M5" s="4"/>
       <c r="N5" s="3">
         <f t="shared" si="5"/>
-        <v>8.0682293285769431E-3</v>
+        <v>1.1708410891103196</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="6"/>
-        <v>0.44427592699126617</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="7"/>
-        <v>3.1031651263757473E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.45032349581166137</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="3">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D6" s="3">
+        <v>25.8</v>
+      </c>
       <c r="E6" s="3">
-        <v>25.8</v>
+        <v>3.53</v>
       </c>
       <c r="F6" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="G6" s="3">
         <v>22454</v>
       </c>
-      <c r="H6" s="4">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>149.84658821608184</v>
       </c>
-      <c r="I6" s="3">
+      <c r="H6" s="3">
         <v>22822</v>
       </c>
-      <c r="J6" s="4">
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
         <v>151.06952042023568</v>
       </c>
-      <c r="K6" s="3">
+      <c r="J6" s="3">
         <f t="shared" si="2"/>
         <v>45276</v>
       </c>
-      <c r="L6" s="4">
+      <c r="K6" s="4">
         <f t="shared" si="3"/>
         <v>212.78157814998929</v>
       </c>
-      <c r="M6" s="3">
-        <f t="shared" si="4"/>
-        <v>1.1839338946707809</v>
-      </c>
+      <c r="L6" s="19">
+        <f t="shared" si="4"/>
+        <v>276.83745579870174</v>
+      </c>
+      <c r="M6" s="4"/>
       <c r="N6" s="3">
         <f t="shared" si="5"/>
-        <v>8.2226759011589951E-3</v>
+        <v>1.203082459363545</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="6"/>
-        <v>0.33539203815036289</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="7"/>
-        <v>2.3293699436711035E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.34081656072621674</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="3">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="3">
+        <v>29</v>
+      </c>
       <c r="E7" s="3">
-        <v>29</v>
+        <v>3.7</v>
       </c>
       <c r="F7" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="G7" s="3">
         <v>23062</v>
       </c>
-      <c r="H7" s="4">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>151.8617792599573</v>
       </c>
-      <c r="I7" s="3">
+      <c r="H7" s="3">
         <v>23415</v>
       </c>
-      <c r="J7" s="4">
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>153.01960658686846</v>
       </c>
-      <c r="K7" s="3">
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>46477</v>
       </c>
-      <c r="L7" s="4">
+      <c r="K7" s="4">
         <f t="shared" si="3"/>
         <v>215.58524995926786</v>
       </c>
-      <c r="M7" s="3">
-        <f t="shared" si="4"/>
-        <v>1.215339155901888</v>
-      </c>
+      <c r="L7" s="19">
+        <f t="shared" si="4"/>
+        <v>284.96505093740683</v>
+      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="3">
         <f t="shared" si="5"/>
-        <v>8.3907070467743351E-3</v>
+        <v>1.238403428196948</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="6"/>
-        <v>0.3284700421356454</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="7"/>
-        <v>2.2677586612903605E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.33470362924241837</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3">
         <v>74</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D8" s="3">
+        <v>74</v>
+      </c>
       <c r="E8" s="3">
-        <v>74</v>
+        <v>5.49</v>
       </c>
       <c r="F8" s="3">
-        <v>5.49</v>
-      </c>
-      <c r="G8" s="3">
         <v>28938</v>
       </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>170.1117279907532</v>
       </c>
-      <c r="I8" s="3">
+      <c r="H8" s="3">
         <v>29009</v>
       </c>
-      <c r="J8" s="4">
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>170.32028651925171</v>
       </c>
-      <c r="K8" s="3">
+      <c r="J8" s="3">
         <f t="shared" si="2"/>
         <v>57947</v>
       </c>
-      <c r="L8" s="4">
+      <c r="K8" s="4">
         <f t="shared" si="3"/>
         <v>240.72183116618234</v>
       </c>
-      <c r="M8" s="3">
-        <f t="shared" si="4"/>
-        <v>1.5152711678259505</v>
-      </c>
+      <c r="L8" s="19">
+        <f t="shared" si="4"/>
+        <v>364.87188119610329</v>
+      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="3">
         <f t="shared" si="5"/>
-        <v>9.9831428964877698E-3</v>
+        <v>1.5856631788337283</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="6"/>
-        <v>0.27600567719962665</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="7"/>
-        <v>1.8184231141143477E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.28882753712818365</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3">
         <v>82</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D9" s="3">
+        <v>82</v>
+      </c>
       <c r="E9" s="3">
-        <v>82</v>
+        <v>5.73</v>
       </c>
       <c r="F9" s="3">
-        <v>5.73</v>
-      </c>
-      <c r="G9" s="3">
         <v>29491</v>
       </c>
-      <c r="H9" s="4">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>171.72943836162744</v>
       </c>
-      <c r="I9" s="3">
+      <c r="H9" s="3">
         <v>29344</v>
       </c>
-      <c r="J9" s="4">
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>171.30090484291085</v>
       </c>
-      <c r="K9" s="3">
+      <c r="J9" s="3">
         <f t="shared" si="2"/>
         <v>58835</v>
       </c>
-      <c r="L9" s="4">
+      <c r="K9" s="4">
         <f t="shared" si="3"/>
         <v>242.55927110708427</v>
       </c>
-      <c r="M9" s="3">
-        <f t="shared" si="4"/>
-        <v>1.5384917106845877</v>
-      </c>
+      <c r="L9" s="19">
+        <f t="shared" si="4"/>
+        <v>371.23621613149544</v>
+      </c>
+      <c r="M9" s="4"/>
       <c r="N9" s="3">
         <f t="shared" si="5"/>
-        <v>1.0105671029681438E-2</v>
+        <v>1.6133213571831655</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="6"/>
-        <v>0.26849768074774655</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="7"/>
-        <v>1.7636424135569701E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.28155695587838836</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3.6860000000000001E-4</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2.7886699999999998E-5</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1230,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1407,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M54"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/geigermuller/GeigerMuller_2.xlsx
+++ b/geigermuller/GeigerMuller_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Elemento</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Erro R Corrigido</t>
+  </si>
+  <si>
+    <t>sdfs</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,7 +642,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1214,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1558,8 +1561,13 @@
     <row r="16" spans="1:13">
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8">
+    <row r="17" spans="8:9">
       <c r="H17" s="3"/>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/geigermuller/GeigerMuller_2.xlsx
+++ b/geigermuller/GeigerMuller_2.xlsx
@@ -117,7 +117,7 @@
     <t xml:space="preserve">Chumbo</t>
   </si>
   <si>
-    <t xml:space="preserve">ola</t>
+    <t xml:space="preserve">ola caralho</t>
   </si>
   <si>
     <t xml:space="preserve">Prateleira</t>
@@ -342,23 +342,23 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4777327935223"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.3724696356275"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3238866396761"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.0890688259109"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.4777327935223"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,15 +875,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6194331983806"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.4777327935223"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9028340080972"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.4777327935223"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,10 +1247,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9473684210526"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.4777327935223"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,6 +1866,10 @@
         <f aca="false">SQRT(B51)</f>
         <v>42.3792402008342</v>
       </c>
+    </row>
+    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">

--- a/geigermuller/GeigerMuller_2.xlsx
+++ b/geigermuller/GeigerMuller_2.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24426"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Documents\LFRA\geigermuller\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="14900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25584" windowHeight="14904"/>
   </bookViews>
   <sheets>
     <sheet name="Retrodifusão de Eletrões" sheetId="1" r:id="rId1"/>
     <sheet name="Variação com a distância" sheetId="2" r:id="rId2"/>
     <sheet name="Variação Estatística" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -257,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -401,32 +406,32 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -731,7 +736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -741,25 +746,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -866,19 +873,19 @@
       </c>
       <c r="N2" s="11">
         <f>L2/(1-$A$13*L2) - $C$13</f>
-        <v>230.10680078001832</v>
+        <v>230.14880078001832</v>
       </c>
       <c r="O2" s="12">
-        <f>SQRT((M2^2+M2^4*$B$13^2)/(1-$A$13*L2)^4 + $D$13^2)</f>
-        <v>1.2827816587832155</v>
+        <f>SQRT((M2^2+L2^4*$B$13^2)/(1-$A$13*L2)^4 + $D$13^2)</f>
+        <v>1.9580685513502349</v>
       </c>
       <c r="P2" s="3">
         <f>N2/$N$2</f>
         <v>1</v>
       </c>
       <c r="Q2" s="3">
-        <f>P2*SQRT((O2/N2)^2+($O$2/$N$2)^2)</f>
-        <v>7.8838487748520807E-3</v>
+        <f>SQRT((O2/$N$2)^2+(P2*($O$2)/$N$2)^2)</f>
+        <v>1.2031898893197095E-2</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>33</v>
@@ -887,7 +894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -935,30 +942,30 @@
       </c>
       <c r="N3" s="11">
         <f t="shared" ref="N3:N9" si="5">L3/(1-$A$13*L3) - $C$13</f>
-        <v>240.96338456377245</v>
+        <v>241.00538456377245</v>
       </c>
       <c r="O3" s="12">
-        <f t="shared" ref="O3:O9" si="6">SQRT((M3^2+M3^4*$B$13^2)/(1-$A$13*L3)^4 + $D$13^2)</f>
-        <v>1.3196892557681872</v>
+        <f t="shared" ref="O3:O9" si="6">SQRT((M3^2+L3^4*$B$13^2)/(1-$A$13*L3)^4 + $D$13^2)</f>
+        <v>2.091375212751327</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" ref="P3:P9" si="7">N3/$N$2</f>
-        <v>1.0471806298073432</v>
+        <v>1.0471720197844139</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q9" si="8">P3*SQRT((O3/N3)^2+($O$2/$N$2)^2)</f>
-        <v>8.1835682133982249E-3</v>
+        <f t="shared" ref="Q3:Q9" si="8">SQRT((O3/$N$2)^2+(P3*($O$2)/$N$2)^2)</f>
+        <v>1.2725875041001863E-2</v>
       </c>
       <c r="R3" s="3">
         <f>P3/E3</f>
-        <v>0.67126963449188659</v>
+        <v>0.67126411524641916</v>
       </c>
       <c r="S3" s="3">
         <f>Q3/E3</f>
-        <v>5.2458770598706565E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>8.1576122057704249E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1006,30 +1013,30 @@
       </c>
       <c r="N4" s="11">
         <f t="shared" si="5"/>
-        <v>265.51515371159826</v>
+        <v>265.55715371159823</v>
       </c>
       <c r="O4" s="12">
         <f t="shared" si="6"/>
-        <v>1.4020257874811346</v>
+        <v>2.4180699909618091</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="7"/>
-        <v>1.1538779071785465</v>
+        <v>1.1538498259020868</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="8"/>
-        <v>8.8601101583733171E-3</v>
+        <v>1.4379030181464492E-2</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" ref="R4:R9" si="9">P4/E4</f>
-        <v>0.49311021674296862</v>
+        <v>0.49309821619747302</v>
       </c>
       <c r="S4" s="3">
         <f t="shared" ref="S4:S9" si="10">Q4/E4</f>
-        <v>3.7863718625527E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>6.1448846929335436E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1077,30 +1084,30 @@
       </c>
       <c r="N5" s="11">
         <f t="shared" si="5"/>
-        <v>269.41849723696799</v>
+        <v>269.46049723696797</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="6"/>
-        <v>1.4149891738420481</v>
+        <v>2.4732497685448966</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="7"/>
-        <v>1.1708410891103196</v>
+        <v>1.1708099122120768</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="8"/>
-        <v>8.9675395116595152E-3</v>
+        <v>1.4652844247791671E-2</v>
       </c>
       <c r="R5" s="3">
         <f t="shared" si="9"/>
-        <v>0.45032349581166137</v>
+        <v>0.45031150469695258</v>
       </c>
       <c r="S5" s="3">
         <f t="shared" si="10"/>
-        <v>3.4490536583305824E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>5.6357093260737193E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1148,30 +1155,30 @@
       </c>
       <c r="N6" s="11">
         <f t="shared" si="5"/>
-        <v>276.83745579870174</v>
+        <v>276.87945579870171</v>
       </c>
       <c r="O6" s="12">
         <f t="shared" si="6"/>
-        <v>1.4395429884818103</v>
+        <v>2.5805859943677332</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="7"/>
-        <v>1.203082459363545</v>
+        <v>1.2030453987172831</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="8"/>
-        <v>9.1716471217593229E-3</v>
+        <v>1.5181764289961307E-2</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="9"/>
-        <v>0.34081656072621674</v>
+        <v>0.34080606195957031</v>
       </c>
       <c r="S6" s="3">
         <f t="shared" si="10"/>
-        <v>2.5982003177788451E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>4.3007830849748751E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1219,30 +1226,30 @@
       </c>
       <c r="N7" s="11">
         <f t="shared" si="5"/>
-        <v>284.96505093740683</v>
+        <v>285.0070509374068</v>
       </c>
       <c r="O7" s="12">
         <f t="shared" si="6"/>
-        <v>1.4663216181738616</v>
+        <v>2.7018747325670818</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="7"/>
-        <v>1.238403428196948</v>
+        <v>1.2383599218047776</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="8"/>
-        <v>9.3951435073409712E-3</v>
+        <v>1.577411087245285E-2</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="9"/>
-        <v>0.33470362924241837</v>
+        <v>0.33469187075804796</v>
       </c>
       <c r="S7" s="3">
         <f t="shared" si="10"/>
-        <v>2.539227974957019E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>4.2632732087710401E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1290,30 +1297,30 @@
       </c>
       <c r="N8" s="11">
         <f t="shared" si="5"/>
-        <v>364.87188119610329</v>
+        <v>364.91388119610326</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="6"/>
-        <v>1.7246059090504833</v>
+        <v>4.100148142910621</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="7"/>
-        <v>1.5856631788337283</v>
+        <v>1.5855563007903595</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="8"/>
-        <v>1.1589272262007243E-2</v>
+        <v>2.2346192829401174E-2</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="9"/>
-        <v>0.28882753712818365</v>
+        <v>0.28880806936072123</v>
       </c>
       <c r="S8" s="3">
         <f t="shared" si="10"/>
-        <v>2.1109785540996801E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>4.070344777668702E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1361,34 +1368,34 @@
       </c>
       <c r="N9" s="11">
         <f t="shared" si="5"/>
-        <v>371.23621613149544</v>
+        <v>371.27821613149541</v>
       </c>
       <c r="O9" s="12">
         <f t="shared" si="6"/>
-        <v>1.7448950430584549</v>
+        <v>4.2275241144277036</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="7"/>
-        <v>1.6133213571831655</v>
+        <v>1.6132094317813628</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="8"/>
-        <v>1.1763943267332619E-2</v>
+        <v>2.292991581124432E-2</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="9"/>
-        <v>0.28155695587838836</v>
+        <v>0.28153742264945247</v>
       </c>
       <c r="S9" s="3">
         <f t="shared" si="10"/>
-        <v>2.0530442002325683E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>4.0017305080705615E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
@@ -1402,7 +1409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>3.6860000000000001E-4</v>
       </c>
@@ -1410,27 +1417,27 @@
         <v>2.7886699999999998E-5</v>
       </c>
       <c r="C13" s="8">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D13" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1440,7 +1447,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
       <c r="D17" s="9"/>
       <c r="E17" s="3"/>
@@ -1450,7 +1457,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1460,7 +1467,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1470,7 +1477,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1480,7 +1487,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1490,7 +1497,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1510,20 +1517,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1564,7 +1571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1607,14 +1614,14 @@
       </c>
       <c r="L2">
         <f>J2/(1-$B$12*J2) - $B$14</f>
-        <v>48.385309429576701</v>
+        <v>48.385642762910038</v>
       </c>
       <c r="M2">
         <f>SQRT((K2^2+J2^4*$B$13^2)/(1-$B$12*J2)^4+$B$15^2)</f>
-        <v>0.66019923359587729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.66022868532764656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1657,14 +1664,14 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L6" si="6">J3/(1-$B$12*J3) - $B$14</f>
-        <v>30.50550102247534</v>
+        <v>30.505834355808673</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M6" si="7">SQRT((K3^2+J3^4*$B$13^2)/(1-$B$12*J3)^4+$B$15^2)</f>
-        <v>0.51939248716454234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.51942992271514177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1707,14 +1714,14 @@
       </c>
       <c r="L4">
         <f t="shared" si="6"/>
-        <v>20.593906169755613</v>
+        <v>20.594239503088946</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>0.4263972592549935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.42644285852744562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1757,14 +1764,14 @@
       </c>
       <c r="L5">
         <f t="shared" si="6"/>
-        <v>15.003156864849844</v>
+        <v>15.003490198183176</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>0.3650050233997808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.36505829123026834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1807,14 +1814,14 @@
       </c>
       <c r="L6">
         <f t="shared" si="6"/>
-        <v>11.737018888186784</v>
+        <v>11.737352221520116</v>
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>0.32427071896325427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.32433067703477375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1822,7 +1829,7 @@
         <v>3.6859744903142816E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1831,28 +1838,28 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14">
-        <v>0.35833333333333334</v>
+      <c r="B14" s="8">
+        <v>0.35799999999999998</v>
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15">
-        <v>5.464532103585E-2</v>
+      <c r="B15" s="8">
+        <v>5.5E-2</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="7:7">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="3"/>
     </row>
   </sheetData>
@@ -1870,21 +1877,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="8"/>
-    <col min="2" max="2" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="8"/>
+    <col min="2" max="2" width="10.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1921,7 +1928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1966,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2011,7 +2018,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -2048,15 +2055,15 @@
       </c>
       <c r="K4" s="22">
         <f>COUNTIF(F2:F51,"&lt;-1.5")-COUNTIF(F2:F51,"&lt;=-2")</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="15">
         <f t="shared" si="6"/>
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -2093,15 +2100,15 @@
       </c>
       <c r="K5" s="22">
         <f>COUNTIF(F2:F51,"&lt;-1.")-COUNTIF(F2:F51,"&lt;=-1.5")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -2138,15 +2145,15 @@
       </c>
       <c r="K6" s="22">
         <f>COUNTIF(F2:F51,"&lt;-0.5")-COUNTIF(F2:F51,"&lt;=-1")</f>
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="15">
         <f t="shared" si="6"/>
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -2183,15 +2190,15 @@
       </c>
       <c r="K7" s="22">
         <f>COUNTIF(F2:F55,"&lt;-0")-COUNTIF(F2:F55,"&lt;=-0.5")</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="15">
         <f t="shared" si="6"/>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -2228,15 +2235,15 @@
       </c>
       <c r="K8" s="22">
         <f>COUNTIF(F2:F51,"&gt;=0")-COUNTIF(F2:F51,"&gt;0.5")</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="15">
         <f t="shared" si="6"/>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -2273,15 +2280,15 @@
       </c>
       <c r="K9" s="22">
         <f>COUNTIF(F2:F51,"&gt;=0.5")-COUNTIF(F2:F51,"&gt;1")</f>
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="L9" s="22"/>
       <c r="M9" s="15">
         <f t="shared" si="6"/>
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -2318,15 +2325,15 @@
       </c>
       <c r="K10" s="22">
         <f>COUNTIF(F2:F51,"&gt;=1")-COUNTIF(F2:F51,"&gt;1.5")</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="15">
         <f t="shared" si="6"/>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -2363,15 +2370,15 @@
       </c>
       <c r="K11" s="22">
         <f>COUNTIF(F9:F59,"&gt;=1.5")-COUNTIF(F2:F51,"&gt;2")</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="15">
         <f t="shared" si="6"/>
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -2416,7 +2423,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2461,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -2496,15 +2503,15 @@
       <c r="J14" s="16"/>
       <c r="K14" s="22">
         <f>SUM(K2:K13)</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="15">
         <f>SUM(M2:M13)</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -2541,7 +2548,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -2582,7 +2589,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -2623,7 +2630,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -2664,7 +2671,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -2705,7 +2712,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -2746,7 +2753,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -2787,7 +2794,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -2824,7 +2831,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -2861,7 +2868,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -2898,7 +2905,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -2935,7 +2942,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -2972,7 +2979,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -3009,7 +3016,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -3046,7 +3053,7 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -3083,7 +3090,7 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -3120,7 +3127,7 @@
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -3157,7 +3164,7 @@
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -3194,7 +3201,7 @@
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -3231,7 +3238,7 @@
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -3268,7 +3275,7 @@
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -3305,7 +3312,7 @@
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -3342,7 +3349,7 @@
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -3379,7 +3386,7 @@
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -3416,7 +3423,7 @@
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -3453,7 +3460,7 @@
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -3490,7 +3497,7 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -3527,7 +3534,7 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -3564,7 +3571,7 @@
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>42</v>
       </c>
@@ -3601,7 +3608,7 @@
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -3638,7 +3645,7 @@
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -3675,7 +3682,7 @@
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -3712,7 +3719,7 @@
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>46</v>
       </c>
@@ -3749,7 +3756,7 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -3786,7 +3793,7 @@
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -3823,7 +3830,7 @@
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -3860,7 +3867,7 @@
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -3894,7 +3901,7 @@
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="15"/>
@@ -3909,7 +3916,7 @@
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>29</v>
       </c>
@@ -3928,7 +3935,7 @@
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <f>AVERAGE(B2:B51)</f>
         <v>1822.02</v>

--- a/geigermuller/GeigerMuller_2.xlsx
+++ b/geigermuller/GeigerMuller_2.xlsx
@@ -265,14 +265,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.00E+00"/>
-    <numFmt numFmtId="170" formatCode="0.000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -415,7 +416,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -431,7 +432,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,7 +444,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -471,7 +472,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="J1:J51 R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="I2:I51 R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1170,7 +1171,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="J1:J51 M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="I2:I51 M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1530,8 +1531,8 @@
   </sheetPr>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1:J51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/geigermuller/GeigerMuller_2.xlsx
+++ b/geigermuller/GeigerMuller_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Retrodifusão de Eletrões" sheetId="1" state="visible" r:id="rId2"/>
@@ -265,15 +265,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.00E+00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.00E+00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -281,6 +280,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -303,6 +303,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -347,7 +348,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -372,7 +373,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,7 +389,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,7 +417,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,10 +433,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -444,11 +441,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -471,28 +468,28 @@
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="I2:I51 R2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0890688259109"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.5465587044534"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.4736842105263"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.331983805668"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.3765182186235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.4736842105263"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.61133603238866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,7 +551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -604,17 +601,17 @@
         <f aca="false">L2/(1-$A$13*L2) - $C$13</f>
         <v>230.106800780018</v>
       </c>
-      <c r="O2" s="6" t="n">
-        <f aca="false">SQRT((M2^2+M2^4*$B$13^2)/(1-$A$13*L2)^4 + $D$13^2)</f>
-        <v>1.28278165878322</v>
+      <c r="O2" s="5" t="n">
+        <f aca="false">SQRT((M2^2+L2^4*$B$13^2)/(1-$A$13*L2)^4 + $D$13^2)</f>
+        <v>1.95984883391215</v>
       </c>
       <c r="P2" s="2" t="n">
         <f aca="false">N2/$N$2</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="6" t="n">
         <f aca="false">P2*SQRT((O2/N2)^2+($O$2/$N$2)^2)</f>
-        <v>0.00788384877485208</v>
+        <v>0.0120450364427488</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>20</v>
@@ -623,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -673,17 +670,17 @@
         <f aca="false">L3/(1-$A$13*L3) - $C$13</f>
         <v>240.963384563772</v>
       </c>
-      <c r="O3" s="6" t="n">
-        <f aca="false">SQRT((M3^2+M3^4*$B$13^2)/(1-$A$13*L3)^4 + $D$13^2)</f>
-        <v>1.31968925576819</v>
+      <c r="O3" s="5" t="n">
+        <f aca="false">SQRT((M3^2+L3^4*$B$13^2)/(1-$A$13*L3)^4 + $D$13^2)</f>
+        <v>2.09304211149959</v>
       </c>
       <c r="P3" s="2" t="n">
         <f aca="false">N3/$N$2</f>
         <v>1.04718062980734</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="6" t="n">
         <f aca="false">P3*SQRT((O3/N3)^2+($O$2/$N$2)^2)</f>
-        <v>0.00818356821339822</v>
+        <v>0.0127390937371323</v>
       </c>
       <c r="R3" s="2" t="n">
         <f aca="false">P3/E3</f>
@@ -691,10 +688,10 @@
       </c>
       <c r="S3" s="2" t="n">
         <f aca="false">Q3/E3</f>
-        <v>0.00524587705987066</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00816608572893099</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -744,17 +741,17 @@
         <f aca="false">L4/(1-$A$13*L4) - $C$13</f>
         <v>265.515153711598</v>
       </c>
-      <c r="O4" s="6" t="n">
-        <f aca="false">SQRT((M4^2+M4^4*$B$13^2)/(1-$A$13*L4)^4 + $D$13^2)</f>
-        <v>1.40202578748113</v>
+      <c r="O4" s="5" t="n">
+        <f aca="false">SQRT((M4^2+L4^4*$B$13^2)/(1-$A$13*L4)^4 + $D$13^2)</f>
+        <v>2.41951182704075</v>
       </c>
       <c r="P4" s="2" t="n">
         <f aca="false">N4/$N$2</f>
         <v>1.15387790717855</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="6" t="n">
         <f aca="false">P4*SQRT((O4/N4)^2+($O$2/$N$2)^2)</f>
-        <v>0.00886011015837332</v>
+        <v>0.0143924912565904</v>
       </c>
       <c r="R4" s="2" t="n">
         <f aca="false">P4/E4</f>
@@ -762,10 +759,10 @@
       </c>
       <c r="S4" s="2" t="n">
         <f aca="false">Q4/E4</f>
-        <v>0.0037863718625527</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00615063728914118</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -815,17 +812,17 @@
         <f aca="false">L5/(1-$A$13*L5) - $C$13</f>
         <v>269.418497236968</v>
       </c>
-      <c r="O5" s="6" t="n">
-        <f aca="false">SQRT((M5^2+M5^4*$B$13^2)/(1-$A$13*L5)^4 + $D$13^2)</f>
-        <v>1.41498917384205</v>
+      <c r="O5" s="5" t="n">
+        <f aca="false">SQRT((M5^2+L5^4*$B$13^2)/(1-$A$13*L5)^4 + $D$13^2)</f>
+        <v>2.47465945487604</v>
       </c>
       <c r="P5" s="2" t="n">
         <f aca="false">N5/$N$2</f>
         <v>1.17084108911032</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="6" t="n">
         <f aca="false">P5*SQRT((O5/N5)^2+($O$2/$N$2)^2)</f>
-        <v>0.00896753951165952</v>
+        <v>0.0146663502928411</v>
       </c>
       <c r="R5" s="2" t="n">
         <f aca="false">P5/E5</f>
@@ -833,10 +830,10 @@
       </c>
       <c r="S5" s="2" t="n">
         <f aca="false">Q5/E5</f>
-        <v>0.00344905365833058</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00564090395878505</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -886,17 +883,17 @@
         <f aca="false">L6/(1-$A$13*L6) - $C$13</f>
         <v>276.837455798702</v>
       </c>
-      <c r="O6" s="6" t="n">
-        <f aca="false">SQRT((M6^2+M6^4*$B$13^2)/(1-$A$13*L6)^4 + $D$13^2)</f>
-        <v>1.43954298848181</v>
+      <c r="O6" s="5" t="n">
+        <f aca="false">SQRT((M6^2+L6^4*$B$13^2)/(1-$A$13*L6)^4 + $D$13^2)</f>
+        <v>2.58193707791783</v>
       </c>
       <c r="P6" s="2" t="n">
         <f aca="false">N6/$N$2</f>
         <v>1.20308245936355</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="6" t="n">
         <f aca="false">P6*SQRT((O6/N6)^2+($O$2/$N$2)^2)</f>
-        <v>0.00917164712175932</v>
+        <v>0.0151953600630766</v>
       </c>
       <c r="R6" s="2" t="n">
         <f aca="false">P6/E6</f>
@@ -904,10 +901,10 @@
       </c>
       <c r="S6" s="2" t="n">
         <f aca="false">Q6/E6</f>
-        <v>0.00259820031777884</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00430463457877524</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -957,17 +954,17 @@
         <f aca="false">L7/(1-$A$13*L7) - $C$13</f>
         <v>284.965050937407</v>
       </c>
-      <c r="O7" s="6" t="n">
-        <f aca="false">SQRT((M7^2+M7^4*$B$13^2)/(1-$A$13*L7)^4 + $D$13^2)</f>
-        <v>1.46632161817386</v>
+      <c r="O7" s="5" t="n">
+        <f aca="false">SQRT((M7^2+L7^4*$B$13^2)/(1-$A$13*L7)^4 + $D$13^2)</f>
+        <v>2.70316519481967</v>
       </c>
       <c r="P7" s="2" t="n">
         <f aca="false">N7/$N$2</f>
         <v>1.23840342819695</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="6" t="n">
         <f aca="false">P7*SQRT((O7/N7)^2+($O$2/$N$2)^2)</f>
-        <v>0.00939514350734097</v>
+        <v>0.0157878109325017</v>
       </c>
       <c r="R7" s="2" t="n">
         <f aca="false">P7/E7</f>
@@ -975,10 +972,10 @@
       </c>
       <c r="S7" s="2" t="n">
         <f aca="false">Q7/E7</f>
-        <v>0.00253922797495702</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00426697592770315</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1028,17 +1025,17 @@
         <f aca="false">L8/(1-$A$13*L8) - $C$13</f>
         <v>364.871881196103</v>
       </c>
-      <c r="O8" s="6" t="n">
-        <f aca="false">SQRT((M8^2+M8^4*$B$13^2)/(1-$A$13*L8)^4 + $D$13^2)</f>
-        <v>1.72460590905048</v>
+      <c r="O8" s="5" t="n">
+        <f aca="false">SQRT((M8^2+L8^4*$B$13^2)/(1-$A$13*L8)^4 + $D$13^2)</f>
+        <v>4.10099863372489</v>
       </c>
       <c r="P8" s="2" t="n">
         <f aca="false">N8/$N$2</f>
         <v>1.58566317883373</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="6" t="n">
         <f aca="false">P8*SQRT((O8/N8)^2+($O$2/$N$2)^2)</f>
-        <v>0.0115892722620072</v>
+        <v>0.022361174460546</v>
       </c>
       <c r="R8" s="2" t="n">
         <f aca="false">P8/E8</f>
@@ -1046,10 +1043,10 @@
       </c>
       <c r="S8" s="2" t="n">
         <f aca="false">Q8/E8</f>
-        <v>0.00211097855409968</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00407307367223061</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1099,17 +1096,17 @@
         <f aca="false">L9/(1-$A$13*L9) - $C$13</f>
         <v>371.236216131495</v>
       </c>
-      <c r="O9" s="6" t="n">
-        <f aca="false">SQRT((M9^2+M9^4*$B$13^2)/(1-$A$13*L9)^4 + $D$13^2)</f>
-        <v>1.74489504305845</v>
+      <c r="O9" s="5" t="n">
+        <f aca="false">SQRT((M9^2+L9^4*$B$13^2)/(1-$A$13*L9)^4 + $D$13^2)</f>
+        <v>4.22834898489561</v>
       </c>
       <c r="P9" s="2" t="n">
         <f aca="false">N9/$N$2</f>
         <v>1.61332135718317</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" s="6" t="n">
         <f aca="false">P9*SQRT((O9/N9)^2+($O$2/$N$2)^2)</f>
-        <v>0.0117639432673326</v>
+        <v>0.0229450155705966</v>
       </c>
       <c r="R9" s="2" t="n">
         <f aca="false">P9/E9</f>
@@ -1117,7 +1114,7 @@
       </c>
       <c r="S9" s="2" t="n">
         <f aca="false">Q9/E9</f>
-        <v>0.00205304420023257</v>
+        <v>0.0040043657191268</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,20 +1168,20 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="I2:I51 M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="Q2:Q9 M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6599190283401"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.61133603238866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,20 +1528,20 @@
   </sheetPr>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="Q2:Q9 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="11.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="12.0890688259109"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0485829959514"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6194331983806"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3765182186235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.61133603238866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,7 +1618,7 @@
         <f aca="false">F2-$A$54</f>
         <v>-7.36576557038325</v>
       </c>
-      <c r="I2" s="21" t="n">
+      <c r="I2" s="6" t="n">
         <f aca="false">H2/$B$54</f>
         <v>-0.175210129864712</v>
       </c>
@@ -1633,11 +1630,11 @@
       <c r="N2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="22" t="n">
+      <c r="O2" s="21" t="n">
         <f aca="false">COUNTIF(I2:I51,"&lt;-2.5")</f>
         <v>0</v>
       </c>
-      <c r="P2" s="22"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="13" t="n">
         <f aca="false">O2/50</f>
         <v>0</v>
@@ -1674,7 +1671,7 @@
         <f aca="false">F3-$A$54</f>
         <v>27.171115798553</v>
       </c>
-      <c r="I3" s="21" t="n">
+      <c r="I3" s="6" t="n">
         <f aca="false">H3/$B$54</f>
         <v>0.646321781781323</v>
       </c>
@@ -1686,11 +1683,11 @@
       <c r="N3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="22" t="n">
+      <c r="O3" s="21" t="n">
         <f aca="false">COUNTIF(I2:I51,"&lt;=-2")</f>
         <v>1</v>
       </c>
-      <c r="P3" s="22"/>
+      <c r="P3" s="21"/>
       <c r="Q3" s="13" t="n">
         <f aca="false">O3/50</f>
         <v>0.02</v>
@@ -1727,7 +1724,7 @@
         <f aca="false">F4-$A$54</f>
         <v>24.0302151677577</v>
       </c>
-      <c r="I4" s="21" t="n">
+      <c r="I4" s="6" t="n">
         <f aca="false">H4/$B$54</f>
         <v>0.571608895231339</v>
       </c>
@@ -1739,11 +1736,11 @@
       <c r="N4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="22" t="n">
+      <c r="O4" s="21" t="n">
         <f aca="false">COUNTIF(I2:I51,"&lt;-1.5")-COUNTIF(I2:I51,"&lt;=-2")</f>
         <v>-1</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="13" t="n">
         <f aca="false">O4/50</f>
         <v>-0.02</v>
@@ -1780,7 +1777,7 @@
         <f aca="false">F5-$A$54</f>
         <v>60.6888039054725</v>
       </c>
-      <c r="I5" s="21" t="n">
+      <c r="I5" s="6" t="n">
         <f aca="false">H5/$B$54</f>
         <v>1.44361005139329</v>
       </c>
@@ -1792,11 +1789,11 @@
       <c r="N5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="22" t="n">
+      <c r="O5" s="21" t="n">
         <f aca="false">COUNTIF(I2:I51,"&lt;-1.")-COUNTIF(I2:I51,"&lt;=-1.5")</f>
         <v>0</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="13" t="n">
         <f aca="false">O5/50</f>
         <v>0</v>
@@ -1833,7 +1830,7 @@
         <f aca="false">F6-$A$54</f>
         <v>10.4223830378039</v>
       </c>
-      <c r="I6" s="21" t="n">
+      <c r="I6" s="6" t="n">
         <f aca="false">H6/$B$54</f>
         <v>0.247918165206877</v>
       </c>
@@ -1845,11 +1842,11 @@
       <c r="N6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="22" t="n">
+      <c r="O6" s="21" t="n">
         <f aca="false">COUNTIF(I2:I51,"&lt;-0.5")-COUNTIF(I2:I51,"&lt;=-1")</f>
         <v>-8</v>
       </c>
-      <c r="P6" s="22"/>
+      <c r="P6" s="21"/>
       <c r="Q6" s="13" t="n">
         <f aca="false">O6/50</f>
         <v>-0.16</v>
@@ -1886,7 +1883,7 @@
         <f aca="false">F7-$A$54</f>
         <v>-64.8636219308864</v>
       </c>
-      <c r="I7" s="21" t="n">
+      <c r="I7" s="6" t="n">
         <f aca="false">H7/$B$54</f>
         <v>-1.54291682424736</v>
       </c>
@@ -1898,11 +1895,11 @@
       <c r="N7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="22" t="n">
+      <c r="O7" s="21" t="n">
         <f aca="false">COUNTIF(F2:F55,"&lt;-0")-COUNTIF(F2:F55,"&lt;=-0.5")</f>
         <v>0</v>
       </c>
-      <c r="P7" s="22"/>
+      <c r="P7" s="21"/>
       <c r="Q7" s="13" t="n">
         <f aca="false">O7/50</f>
         <v>0</v>
@@ -1939,7 +1936,7 @@
         <f aca="false">F8-$A$54</f>
         <v>16.7023682954039</v>
       </c>
-      <c r="I8" s="21" t="n">
+      <c r="I8" s="6" t="n">
         <f aca="false">H8/$B$54</f>
         <v>0.397300740856147</v>
       </c>
@@ -1951,11 +1948,11 @@
       <c r="N8" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="22" t="n">
+      <c r="O8" s="21" t="n">
         <f aca="false">COUNTIF(I2:I51,"&gt;=0")-COUNTIF(I2:I51,"&gt;0.5")</f>
         <v>24</v>
       </c>
-      <c r="P8" s="22"/>
+      <c r="P8" s="21"/>
       <c r="Q8" s="13" t="n">
         <f aca="false">O8/50</f>
         <v>0.48</v>
@@ -1992,7 +1989,7 @@
         <f aca="false">F9-$A$54</f>
         <v>-94.1047578199459</v>
       </c>
-      <c r="I9" s="21" t="n">
+      <c r="I9" s="6" t="n">
         <f aca="false">H9/$B$54</f>
         <v>-2.2384783605952</v>
       </c>
@@ -2004,11 +2001,11 @@
       <c r="N9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="22" t="n">
+      <c r="O9" s="21" t="n">
         <f aca="false">COUNTIF(I2:I51,"&gt;=0.5")-COUNTIF(I2:I51,"&gt;1")</f>
         <v>-8</v>
       </c>
-      <c r="P9" s="22"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="13" t="n">
         <f aca="false">O9/50</f>
         <v>-0.16</v>
@@ -2045,7 +2042,7 @@
         <f aca="false">F10-$A$54</f>
         <v>-2.13474617793599</v>
       </c>
-      <c r="I10" s="21" t="n">
+      <c r="I10" s="6" t="n">
         <f aca="false">H10/$B$54</f>
         <v>-0.0507793998451818</v>
       </c>
@@ -2057,11 +2054,11 @@
       <c r="N10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="22" t="n">
+      <c r="O10" s="21" t="n">
         <f aca="false">COUNTIF(I2:I51,"&gt;=1")-COUNTIF(I2:I51,"&gt;1.5")</f>
         <v>8</v>
       </c>
-      <c r="P10" s="22"/>
+      <c r="P10" s="21"/>
       <c r="Q10" s="13" t="n">
         <f aca="false">O10/50</f>
         <v>0.16</v>
@@ -2098,7 +2095,7 @@
         <f aca="false">F11-$A$54</f>
         <v>-13.6421211682652</v>
       </c>
-      <c r="I11" s="21" t="n">
+      <c r="I11" s="6" t="n">
         <f aca="false">H11/$B$54</f>
         <v>-0.324506366470951</v>
       </c>
@@ -2110,11 +2107,11 @@
       <c r="N11" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="O11" s="22" t="n">
+      <c r="O11" s="21" t="n">
         <f aca="false">COUNTIF(F9:F59,"&gt;=1.5")-COUNTIF(I2:I51,"&gt;2")</f>
         <v>-1</v>
       </c>
-      <c r="P11" s="22"/>
+      <c r="P11" s="21"/>
       <c r="Q11" s="13" t="n">
         <f aca="false">O11/50</f>
         <v>-0.02</v>
@@ -2151,7 +2148,7 @@
         <f aca="false">F12-$A$54</f>
         <v>-0.0421543390284569</v>
       </c>
-      <c r="I12" s="21" t="n">
+      <c r="I12" s="6" t="n">
         <f aca="false">H12/$B$54</f>
         <v>-0.00100272906393256</v>
       </c>
@@ -2163,11 +2160,11 @@
       <c r="N12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="22" t="n">
+      <c r="O12" s="21" t="n">
         <f aca="false">COUNTIF(I2:I51,"&gt;=2")-COUNTIF(I2:I51,"&gt;2.5")</f>
         <v>1</v>
       </c>
-      <c r="P12" s="22"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="13" t="n">
         <f aca="false">O12/50</f>
         <v>0.02</v>
@@ -2204,7 +2201,7 @@
         <f aca="false">F13-$A$54</f>
         <v>-31.4199901982986</v>
       </c>
-      <c r="I13" s="21" t="n">
+      <c r="I13" s="6" t="n">
         <f aca="false">H13/$B$54</f>
         <v>-0.747390140289987</v>
       </c>
@@ -2216,11 +2213,11 @@
       <c r="N13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="22" t="n">
+      <c r="O13" s="21" t="n">
         <f aca="false">COUNTIF(F11:F61,"&gt;=2.5")-COUNTIF(F11:F61,"&gt;3")</f>
         <v>-41</v>
       </c>
-      <c r="P13" s="22"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="13" t="n">
         <f aca="false">O13/50</f>
         <v>-0.82</v>
@@ -2257,7 +2254,7 @@
         <f aca="false">F14-$A$54</f>
         <v>33.4536278941559</v>
       </c>
-      <c r="I14" s="21" t="n">
+      <c r="I14" s="6" t="n">
         <f aca="false">H14/$B$54</f>
         <v>0.795764463554039</v>
       </c>
@@ -2267,11 +2264,11 @@
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="22" t="n">
+      <c r="O14" s="21" t="n">
         <f aca="false">SUM(O2:O13)</f>
         <v>-25</v>
       </c>
-      <c r="P14" s="22"/>
+      <c r="P14" s="21"/>
       <c r="Q14" s="13" t="n">
         <f aca="false">SUM(Q2:Q13)</f>
         <v>-0.5</v>
@@ -2308,7 +2305,7 @@
         <f aca="false">F15-$A$54</f>
         <v>7.28274561161311</v>
       </c>
-      <c r="I15" s="21" t="n">
+      <c r="I15" s="6" t="n">
         <f aca="false">H15/$B$54</f>
         <v>0.173235326618738</v>
       </c>
@@ -2353,7 +2350,7 @@
         <f aca="false">F16-$A$54</f>
         <v>-31.4199901982986</v>
       </c>
-      <c r="I16" s="21" t="n">
+      <c r="I16" s="6" t="n">
         <f aca="false">H16/$B$54</f>
         <v>-0.747390140289987</v>
       </c>
@@ -2402,7 +2399,7 @@
         <f aca="false">F17-$A$54</f>
         <v>33.4536278941559</v>
       </c>
-      <c r="I17" s="21" t="n">
+      <c r="I17" s="6" t="n">
         <f aca="false">H17/$B$54</f>
         <v>0.795764463554039</v>
       </c>
@@ -2451,7 +2448,7 @@
         <f aca="false">F18-$A$54</f>
         <v>7.28274561161311</v>
       </c>
-      <c r="I18" s="21" t="n">
+      <c r="I18" s="6" t="n">
         <f aca="false">H18/$B$54</f>
         <v>0.173235326618738</v>
       </c>
@@ -2500,7 +2497,7 @@
         <f aca="false">F19-$A$54</f>
         <v>46.0214961722659</v>
       </c>
-      <c r="I19" s="21" t="n">
+      <c r="I19" s="6" t="n">
         <f aca="false">H19/$B$54</f>
         <v>1.09471747965114</v>
       </c>
@@ -2549,7 +2546,7 @@
         <f aca="false">F20-$A$54</f>
         <v>-34.5564729449441</v>
       </c>
-      <c r="I20" s="21" t="n">
+      <c r="I20" s="6" t="n">
         <f aca="false">H20/$B$54</f>
         <v>-0.821997938231293</v>
       </c>
@@ -2598,7 +2595,7 @@
         <f aca="false">F21-$A$54</f>
         <v>21.936413031618</v>
       </c>
-      <c r="I21" s="21" t="n">
+      <c r="I21" s="6" t="n">
         <f aca="false">H21/$B$54</f>
         <v>0.521803435000686</v>
       </c>
@@ -2647,7 +2644,7 @@
         <f aca="false">F22-$A$54</f>
         <v>36.5952394125904</v>
       </c>
-      <c r="I22" s="21" t="n">
+      <c r="I22" s="6" t="n">
         <f aca="false">H22/$B$54</f>
         <v>0.870494260052401</v>
       </c>
@@ -2692,7 +2689,7 @@
         <f aca="false">F23-$A$54</f>
         <v>-47.100040106083</v>
       </c>
-      <c r="I23" s="21" t="n">
+      <c r="I23" s="6" t="n">
         <f aca="false">H23/$B$54</f>
         <v>-1.12037290146754</v>
       </c>
@@ -2737,7 +2734,7 @@
         <f aca="false">F24-$A$54</f>
         <v>41.8317853258484</v>
       </c>
-      <c r="I24" s="21" t="n">
+      <c r="I24" s="6" t="n">
         <f aca="false">H24/$B$54</f>
         <v>0.995056449920835</v>
       </c>
@@ -2782,7 +2779,7 @@
         <f aca="false">F25-$A$54</f>
         <v>-29.3288703488502</v>
       </c>
-      <c r="I25" s="21" t="n">
+      <c r="I25" s="6" t="n">
         <f aca="false">H25/$B$54</f>
         <v>-0.697648483854745</v>
       </c>
@@ -2827,7 +2824,7 @@
         <f aca="false">F26-$A$54</f>
         <v>-79.4867599424581</v>
       </c>
-      <c r="I26" s="21" t="n">
+      <c r="I26" s="6" t="n">
         <f aca="false">H26/$B$54</f>
         <v>-1.89075872683777</v>
       </c>
@@ -2872,7 +2869,7 @@
         <f aca="false">F27-$A$54</f>
         <v>47.0689897415684</v>
       </c>
-      <c r="I27" s="21" t="n">
+      <c r="I27" s="6" t="n">
         <f aca="false">H27/$B$54</f>
         <v>1.11963430364672</v>
       </c>
@@ -2917,7 +2914,7 @@
         <f aca="false">F28-$A$54</f>
         <v>5.18978553248508</v>
       </c>
-      <c r="I28" s="21" t="n">
+      <c r="I28" s="6" t="n">
         <f aca="false">H28/$B$54</f>
         <v>0.123449896474156</v>
       </c>
@@ -2962,7 +2959,7 @@
         <f aca="false">F29-$A$54</f>
         <v>-15.7340293902716</v>
       </c>
-      <c r="I29" s="21" t="n">
+      <c r="I29" s="6" t="n">
         <f aca="false">H29/$B$54</f>
         <v>-0.374266775995324</v>
       </c>
@@ -3007,7 +3004,7 @@
         <f aca="false">F30-$A$54</f>
         <v>-50.2353410736153</v>
       </c>
-      <c r="I30" s="21" t="n">
+      <c r="I30" s="6" t="n">
         <f aca="false">H30/$B$54</f>
         <v>-1.19495258832251</v>
       </c>
@@ -3052,7 +3049,7 @@
         <f aca="false">F31-$A$54</f>
         <v>59.6409677727529</v>
       </c>
-      <c r="I31" s="21" t="n">
+      <c r="I31" s="6" t="n">
         <f aca="false">H31/$B$54</f>
         <v>1.41868507881082</v>
       </c>
@@ -3097,7 +3094,7 @@
         <f aca="false">F32-$A$54</f>
         <v>-22.0091232354052</v>
       </c>
-      <c r="I32" s="21" t="n">
+      <c r="I32" s="6" t="n">
         <f aca="false">H32/$B$54</f>
         <v>-0.523532999175152</v>
       </c>
@@ -3142,7 +3139,7 @@
         <f aca="false">F33-$A$54</f>
         <v>-12.5961276264998</v>
       </c>
-      <c r="I33" s="21" t="n">
+      <c r="I33" s="6" t="n">
         <f aca="false">H33/$B$54</f>
         <v>-0.299625223765666</v>
       </c>
@@ -3187,7 +3184,7 @@
         <f aca="false">F34-$A$54</f>
         <v>73.2648937059255</v>
       </c>
-      <c r="I34" s="21" t="n">
+      <c r="I34" s="6" t="n">
         <f aca="false">H34/$B$54</f>
         <v>1.74275863358378</v>
       </c>
@@ -3232,7 +3229,7 @@
         <f aca="false">F35-$A$54</f>
         <v>65.9283799588266</v>
       </c>
-      <c r="I35" s="21" t="n">
+      <c r="I35" s="6" t="n">
         <f aca="false">H35/$B$54</f>
         <v>1.56824431947745</v>
       </c>
@@ -3277,7 +3274,7 @@
         <f aca="false">F36-$A$54</f>
         <v>-1.08846340818286</v>
       </c>
-      <c r="I36" s="21" t="n">
+      <c r="I36" s="6" t="n">
         <f aca="false">H36/$B$54</f>
         <v>-0.025891377247672</v>
       </c>
@@ -3322,7 +3319,7 @@
         <f aca="false">F37-$A$54</f>
         <v>-9.45798926625139</v>
       </c>
-      <c r="I37" s="21" t="n">
+      <c r="I37" s="6" t="n">
         <f aca="false">H37/$B$54</f>
         <v>-0.224978043594285</v>
       </c>
@@ -3367,7 +3364,7 @@
         <f aca="false">F38-$A$54</f>
         <v>-36.6473301025724</v>
       </c>
-      <c r="I38" s="21" t="n">
+      <c r="I38" s="6" t="n">
         <f aca="false">H38/$B$54</f>
         <v>-0.87173334599252</v>
       </c>
@@ -3412,7 +3409,7 @@
         <f aca="false">F39-$A$54</f>
         <v>82.6994529206427</v>
       </c>
-      <c r="I39" s="21" t="n">
+      <c r="I39" s="6" t="n">
         <f aca="false">H39/$B$54</f>
         <v>1.96717934442931</v>
       </c>
@@ -3457,7 +3454,7 @@
         <f aca="false">F40-$A$54</f>
         <v>-31.4199901982986</v>
       </c>
-      <c r="I40" s="21" t="n">
+      <c r="I40" s="6" t="n">
         <f aca="false">H40/$B$54</f>
         <v>-0.747390140289987</v>
       </c>
@@ -3502,7 +3499,7 @@
         <f aca="false">F41-$A$54</f>
         <v>-15.7340293902716</v>
       </c>
-      <c r="I41" s="21" t="n">
+      <c r="I41" s="6" t="n">
         <f aca="false">H41/$B$54</f>
         <v>-0.374266775995324</v>
       </c>
@@ -3547,7 +3544,7 @@
         <f aca="false">F42-$A$54</f>
         <v>22.9833009385786</v>
       </c>
-      <c r="I42" s="21" t="n">
+      <c r="I42" s="6" t="n">
         <f aca="false">H42/$B$54</f>
         <v>0.546705852051521</v>
       </c>
@@ -3592,7 +3589,7 @@
         <f aca="false">F43-$A$54</f>
         <v>-39.783418848617</v>
       </c>
-      <c r="I43" s="21" t="n">
+      <c r="I43" s="6" t="n">
         <f aca="false">H43/$B$54</f>
         <v>-0.946331771806003</v>
       </c>
@@ -3637,7 +3634,7 @@
         <f aca="false">F44-$A$54</f>
         <v>-55.460317642307</v>
       </c>
-      <c r="I44" s="21" t="n">
+      <c r="I44" s="6" t="n">
         <f aca="false">H44/$B$54</f>
         <v>-1.31923957714842</v>
       </c>
@@ -3682,7 +3679,7 @@
         <f aca="false">F45-$A$54</f>
         <v>15.6556383009258</v>
       </c>
-      <c r="I45" s="21" t="n">
+      <c r="I45" s="6" t="n">
         <f aca="false">H45/$B$54</f>
         <v>0.372402080083776</v>
       </c>
@@ -3727,7 +3724,7 @@
         <f aca="false">F46-$A$54</f>
         <v>-42.9192712299353</v>
       </c>
-      <c r="I46" s="21" t="n">
+      <c r="I46" s="6" t="n">
         <f aca="false">H46/$B$54</f>
         <v>-1.02092457519043</v>
       </c>
@@ -3772,7 +3769,7 @@
         <f aca="false">F47-$A$54</f>
         <v>7.28274561161311</v>
       </c>
-      <c r="I47" s="21" t="n">
+      <c r="I47" s="6" t="n">
         <f aca="false">H47/$B$54</f>
         <v>0.173235326618738</v>
       </c>
@@ -3817,7 +3814,7 @@
         <f aca="false">F48-$A$54</f>
         <v>88.9903460689602</v>
       </c>
-      <c r="I48" s="21" t="n">
+      <c r="I48" s="6" t="n">
         <f aca="false">H48/$B$54</f>
         <v>2.11682138705875</v>
       </c>
@@ -3862,7 +3859,7 @@
         <f aca="false">F49-$A$54</f>
         <v>-63.8189153124811</v>
       </c>
-      <c r="I49" s="21" t="n">
+      <c r="I49" s="6" t="n">
         <f aca="false">H49/$B$54</f>
         <v>-1.51806629370409</v>
       </c>
@@ -3907,7 +3904,7 @@
         <f aca="false">F50-$A$54</f>
         <v>24.0302151677577</v>
       </c>
-      <c r="I50" s="21" t="n">
+      <c r="I50" s="6" t="n">
         <f aca="false">H50/$B$54</f>
         <v>0.571608895231339</v>
       </c>
@@ -3952,7 +3949,7 @@
         <f aca="false">F51-$A$54</f>
         <v>-27.2376454088121</v>
       </c>
-      <c r="I51" s="21" t="n">
+      <c r="I51" s="6" t="n">
         <f aca="false">H51/$B$54</f>
         <v>-0.647904327620171</v>
       </c>
@@ -3985,7 +3982,7 @@
       <c r="A53" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C53" s="13"/>
@@ -4021,19 +4018,23 @@
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
     </row>
+    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0"/>
+      <c r="B55" s="0"/>
+    </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24" t="n">
+      <c r="A57" s="23" t="n">
         <v>0.0003686</v>
       </c>
-      <c r="B57" s="25" t="n">
+      <c r="B57" s="24" t="n">
         <v>2.78866781830166E-005</v>
       </c>
     </row>
